--- a/docs/new_schema_error_reports.xlsx
+++ b/docs/new_schema_error_reports.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="instances" sheetId="2" r:id="rId1"/>
-    <sheet name="messages" sheetId="1" r:id="rId2"/>
+    <sheet name="old_data_vs_new_schema" sheetId="3" r:id="rId1"/>
+    <sheet name="error_types" sheetId="4" r:id="rId2"/>
+    <sheet name="error_messages" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">instances!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">messages!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">error_messages!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">error_types!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">old_data_vs_new_schema!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,59 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="422">
-  <si>
-    <t>'pks_evidence_skip_iter' is a dependency of 'pks_mod_skip_iter'</t>
-  </si>
-  <si>
-    <t>'at_multiple_spec' is a dependency of 'at_substr_spec'</t>
-  </si>
-  <si>
-    <t>'evidence_at_spec' is a dependency of 'at_substr_spec'</t>
-  </si>
-  <si>
-    <t>'pks_other_mod_dom' is a dependency of 'pks_mod_doms'</t>
-  </si>
-  <si>
-    <t>'other_chem_moiety' is a dependency of 'chem_moiety'</t>
-  </si>
-  <si>
-    <t>'other_spec' is a dependency of 'nonprot_adom_spec'</t>
-  </si>
-  <si>
-    <t>'at_substr_spec' is a dependency of 'pks_domains'</t>
-  </si>
-  <si>
-    <t>'kr_stereochem' is a dependency of 'pks_domains'</t>
-  </si>
-  <si>
-    <t>'nrps_evidence_skip_iter' is a required property</t>
-  </si>
-  <si>
-    <t>'nonprot_adom_spec' is a dependency of 'aa_type'</t>
-  </si>
-  <si>
-    <t>'pks_evidence_skip_iter' is a required property</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="452">
   <si>
     <t>'evidence_genefunction' is a required property</t>
   </si>
   <si>
-    <t>'a_multiple_spec' is a dependency of 'aa_type'</t>
-  </si>
-  <si>
-    <t>'prot_adom_spec' is a dependency of 'aa_type'</t>
-  </si>
-  <si>
-    <t>'aa_subcluster' is a dependency of 'aa_type'</t>
-  </si>
-  <si>
     <t>'X' does not match '^[xABCD0123456789]{1,}$'</t>
   </si>
   <si>
-    <t>'nrps_other_mod_dom' is a required property</t>
-  </si>
-  <si>
     <t>'X' does not match '^[ABCD0123456789]{1,}$'</t>
   </si>
   <si>
@@ -94,21 +51,6 @@
     <t>'conn_comp_cluster' is a required property</t>
   </si>
   <si>
-    <t>'nonprot_adom_spec' is a required property</t>
-  </si>
-  <si>
-    <t>'nrps_release_type' is a required property</t>
-  </si>
-  <si>
-    <t>'iterative_subtype' is a required property</t>
-  </si>
-  <si>
-    <t>'nrps_thioesterase' is a required property</t>
-  </si>
-  <si>
-    <t>'pks_thioesterase' is a required property</t>
-  </si>
-  <si>
     <t>'evidence_gt_spec' is a required property</t>
   </si>
   <si>
@@ -121,75 +63,18 @@
     <t>'other_chem_act' is a required property</t>
   </si>
   <si>
-    <t>'at_substr_spec' is a required property</t>
-  </si>
-  <si>
-    <t>'prot_adom_spec' is a required property</t>
-  </si>
-  <si>
-    <t>'iter_cycl_type' is a required property</t>
-  </si>
-  <si>
     <t>'precursor_loci' is a required property</t>
   </si>
   <si>
-    <t>'ketide_length' is a required property</t>
-  </si>
-  <si>
     <t>'gene_function' is a required property</t>
   </si>
   <si>
-    <t>'gene_startpos' is a required property</t>
-  </si>
-  <si>
-    <t>'nr_iterations' is a required property</t>
-  </si>
-  <si>
-    <t>'pufa_mod_doms' is a required property</t>
-  </si>
-  <si>
-    <t>'lin_cycl_ripp' is a required property</t>
-  </si>
-  <si>
     <t>'other_gt_spec' is a required property</t>
   </si>
   <si>
-    <t>'starter_unit' is a required property</t>
-  </si>
-  <si>
     <t>'publications' is a required property</t>
   </si>
   <si>
-    <t>'lin_cycl_nrp' is a required property</t>
-  </si>
-  <si>
-    <t>'lipid_moiety' is a required property</t>
-  </si>
-  <si>
-    <t>'nrps_te_type' is a required property</t>
-  </si>
-  <si>
-    <t>'pks_subclass' is a required property</t>
-  </si>
-  <si>
-    <t>'cdom_subtype' is a required property</t>
-  </si>
-  <si>
-    <t>'lin_cycl_pk' is a required property</t>
-  </si>
-  <si>
-    <t>'pk_subclass' is a required property</t>
-  </si>
-  <si>
-    <t>'pks_te_type' is a required property</t>
-  </si>
-  <si>
-    <t>'gene_endpos' is a required property</t>
-  </si>
-  <si>
-    <t>'nrps_module' is a required property</t>
-  </si>
-  <si>
     <t>'1651097 ' is not of type 'integer'</t>
   </si>
   <si>
@@ -205,9 +90,6 @@
     <t>'saccharide' is a required property</t>
   </si>
   <si>
-    <t>'nrps_genes' is a required property</t>
-  </si>
-  <si>
     <t>'323.12938' is not of type 'number'</t>
   </si>
   <si>
@@ -235,15 +117,6 @@
     <t>'personal' is a required property</t>
   </si>
   <si>
-    <t>'nucl_acc' is a required property</t>
-  </si>
-  <si>
-    <t>'subclass' is a required property</t>
-  </si>
-  <si>
-    <t>'trans_at' is a required property</t>
-  </si>
-  <si>
     <t>'272.468' is not of type 'number'</t>
   </si>
   <si>
@@ -253,9 +126,6 @@
     <t>-1 is less than the minimum of 0</t>
   </si>
   <si>
-    <t>'aa_type' is a required property</t>
-  </si>
-  <si>
     <t>'gt_gene' is a required property</t>
   </si>
   <si>
@@ -271,657 +141,9 @@
     <t>[] is too short</t>
   </si>
   <si>
-    <t>error message</t>
-  </si>
-  <si>
     <t>counts</t>
   </si>
   <si>
-    <t>'linear' is not one of ['Linear', 'Cyclic']</t>
-  </si>
-  <si>
-    <t>'partial' is not one of ['unknown', 'complete', 'incomplete']</t>
-  </si>
-  <si>
-    <t>'Amination' is not one of ['None', 'Methylation', 'Oxidation', 'Other']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Ether', 'Thioether', 'Lactone', 'Lactam', 'Other']</t>
-  </si>
-  <si>
-    <t>'Epimerization' is not one of ['None', 'Methylation', 'Oxidation', 'Other']</t>
-  </si>
-  <si>
-    <t>'Aminotransferase' is not one of ['None', 'Methylation', 'Oxidation', 'Other']</t>
-  </si>
-  <si>
-    <t>'A-group' is not one of ['Inactive', 'L-OH', 'Unknown', 'No reduction', 'D-OH']</t>
-  </si>
-  <si>
-    <t>'B-group' is not one of ['Inactive', 'L-OH', 'Unknown', 'No reduction', 'D-OH']</t>
-  </si>
-  <si>
-    <t>'other' is not one of ['None', 'Unknown', 'Both', 'Other', 'Type I', 'Type II']</t>
-  </si>
-  <si>
-    <t>'Heterocyclization' is not one of ['None', 'Methylation', 'Oxidation', 'Other']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['DMAPP', 'IPP', 'GFPP', 'GGPP', 'FPP', 'UPP', 'NPP', 'Other', 'GPP']</t>
-  </si>
-  <si>
-    <t>'Nucleoside' is not one of ['Polyketide', 'NRP', 'RiPP', 'Alkaloid', 'Terpene', 'Other', 'Saccharide']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Other', 'Sequence-based prediction', 'Activity assay', 'Structure-based inference']</t>
-  </si>
-  <si>
-    <t>'Feeding study' is not one of ['Other', 'Sequence-based prediction', 'Activity assay', 'Structure-based inference']</t>
-  </si>
-  <si>
-    <t>'N/A' is not one of ['Dual', 'LCL', 'Ester bond-forming', 'DCL', 'Unknown', 'Heterocyclization', 'Starter', 'Other']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Dual', 'LCL', 'Ester bond-forming', 'DCL', 'Unknown', 'Heterocyclization', 'Starter', 'Other']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Hopanoid', 'Quinone', 'Tocopherol', 'Gibberellin', 'Carotenoid', 'Sterol', 'Dolichol', 'Other']</t>
-  </si>
-  <si>
-    <t>'GNAT' is not one of ['None', 'Amination', 'Beta-branching', 'Methylation', 'Pyran synthase', 'Other', 'Michael branching']</t>
-  </si>
-  <si>
-    <t>'Oxidation' is not one of ['None', 'Amination', 'Beta-branching', 'Methylation', 'Pyran synthase', 'Other', 'Michael branching']</t>
-  </si>
-  <si>
-    <t>'' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'N/A' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'T' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'A' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'E' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'C' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'AT' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'DH' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'KR' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'KS' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'TE' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'ER' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'PT' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'ST' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'TR' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'SAT' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'ACP' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'CAL' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Isotope labeling', 'Feeding study', 'Activity assay', 'Other', 'Sequence-based prediction', 'Structure-based inference']</t>
-  </si>
-  <si>
-    <t>'CMET' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'FAAL' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'knock out' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'PPTASE' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Hydrolysis', 'Macrothiolactonization', 'Unknown', 'Reductive release', 'Macrolactamization', 'Other', 'Macrolactonization']</t>
-  </si>
-  <si>
-    <t>'TE/CLC' is not one of ['Ketoreductase', 'Dehydratase', 'Enoylreductase', 'CoA-ligase', 'Thiolation (ACP/PCP)', 'Acyltransferase', 'Ketosynthase']</t>
-  </si>
-  <si>
-    <t>'N/AKnock-out' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'activity assay' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'structure-based inference' is not one of ['Knock-out construct', 'Activity assay', 'Other', 'Sequence-based prediction', 'Structure-based inference']</t>
-  </si>
-  <si>
-    <t>'Overexpression' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>' Activity assay' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>' activity assay' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'' is not one of ['Cytotoxic', 'Antifungal', 'Inhibitor', 'Unknown', 'Signalling', 'Antioxidant', 'Siderophore', 'Other', 'Surfactant', 'Antibacterial']</t>
-  </si>
-  <si>
-    <t>'other in vivo study' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Resistance/immunity' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'2x Crotonase / Enoyl-CoA dehydratase' is not one of ['None', 'Amination', 'Beta-branching', 'Methylation', 'Pyran synthase', 'Other', 'Michael branching']</t>
-  </si>
-  <si>
-    <t>' Other in vivo study' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>' other in vivo study' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Other in vivo studies' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>' Other in vivo studies' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Type I' is not one of ['Iterative type I', 'Trans-AT type I', 'Enediyne type I', 'PUFA synthase or related', 'Modular type I', 'Type II', 'Type III', 'Other']</t>
-  </si>
-  <si>
-    <t>'heterologous expression' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Pigment' is not one of ['Cytotoxic', 'Antifungal', 'Inhibitor', 'Unknown', 'Signalling', 'Antioxidant', 'Siderophore', 'Other', 'Surfactant', 'Antibacterial']</t>
-  </si>
-  <si>
-    <t>'Activity assay &amp; knockout' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Sequence based prediction' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Antiviral' is not one of ['Cytotoxic', 'Antifungal', 'Inhibitor', 'Unknown', 'Signalling', 'Antioxidant', 'Siderophore', 'Other', 'Surfactant', 'Antibacterial']</t>
-  </si>
-  <si>
-    <t>' Sequence-based prediction' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>' sequence-based prediction' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Activity assay &amp; knock-out' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>' sequenced-based prediction' is not one of ['Heterologous expression', 'Knock-out', 'Activity assay', 'Other', 'Other in vivo study', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Modular Type I' is not one of ['Iterative type I', 'Trans-AT type I', 'Enediyne type I', 'PUFA synthase or related', 'Modular type I', 'Type II', 'Type III', 'Other']</t>
-  </si>
-  <si>
-    <t>'Iterative typeI' is not one of ['Iterative type I', 'Trans-AT type I', 'Enediyne type I', 'PUFA synthase or related', 'Modular type I', 'Type II', 'Type III', 'Other']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Hydrolysis', 'Claisen condensation', 'Macrothiolactonization', 'Unknown', 'Macrolactamization', 'Reductive release', 'Other', 'Macrolactonization']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['[M+2H]2+', '[M+K]+', '[M+H]+', '[M+NH4]+', '[M+H–H2O]+', '[M-H–H2O]-', '[M+X]-', '[M-H]-', 'M+', 'M-', 'Other', '[M+Na]+', '[M+Cl]-', 'Other multiply charged ion']</t>
-  </si>
-  <si>
-    <t>'hyrbid/tailoring' is not one of ['lipopolysaccharide', 'capsular polysaccharide', 'oligosaccharide', 'exopolysaccharide', 'aminocyclitol', 'other', 'aminoglycoside', 'hybrid/tailoring']</t>
-  </si>
-  <si>
-    <t>'M+H+' is not one of ['[M+2H]2+', '[M+K]+', '[M+H]+', '[M+NH4]+', '[M+H–H2O]+', '[M-H–H2O]-', '[M+X]-', '[M-H]-', 'M+', 'M-', 'Other', '[M+Na]+', '[M+Cl]-', 'Other multiply charged ion']</t>
-  </si>
-  <si>
-    <t>'none' is not one of ['[M+2H]2+', '[M+K]+', '[M+H]+', '[M+NH4]+', '[M+H–H2O]+', '[M-H–H2O]-', '[M+X]-', '[M-H]-', 'M+', 'M-', 'Other', '[M+Na]+', '[M+Cl]-', 'Other multiply charged ion']</t>
-  </si>
-  <si>
-    <t>'M+Na+' is not one of ['[M+2H]2+', '[M+K]+', '[M+H]+', '[M+NH4]+', '[M+H–H2O]+', '[M-H–H2O]-', '[M+X]-', '[M-H]-', 'M+', 'M-', 'Other', '[M+Na]+', '[M+Cl]-', 'Other multiply charged ion']</t>
-  </si>
-  <si>
-    <t>'[M+H-H2O]+' is not one of ['[M+2H]2+', '[M+K]+', '[M+H]+', '[M+NH4]+', '[M+H–H2O]+', '[M-H–H2O]-', '[M+X]-', '[M-H]-', 'M+', 'M-', 'Other', '[M+Na]+', '[M+Cl]-', 'Other multiply charged ion']</t>
-  </si>
-  <si>
-    <t>'Knock-outstudies' is not one of ['Heterologous expression', 'Knock-out studies', 'Other', 'Enzymatic assays', 'Gene expression correlated with compound production', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'Molecular ion' is not one of ['[M+2H]2+', '[M+K]+', '[M+H]+', '[M+NH4]+', '[M+H–H2O]+', '[M-H–H2O]-', '[M+X]-', '[M-H]-', 'M+', 'M-', 'Other', '[M+Na]+', '[M+Cl]-', 'Other multiply charged ion']</t>
-  </si>
-  <si>
-    <t>'' is not one of ['Resistance/immunity', 'Tailoring', 'Regulation', 'Unknown', 'Transport', 'Other enzymatic', 'Scaffold biosynthesis', 'Other', 'Precursor biosynthesis', 'Activation / processing']</t>
-  </si>
-  <si>
-    <t>None is not one of ['Resistance/immunity', 'Tailoring', 'Regulation', 'Unknown', 'Transport', 'Other enzymatic', 'Scaffold biosynthesis', 'Other', 'Precursor biosynthesis', 'Activation / processing']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Resistance/immunity', 'Tailoring', 'Regulation', 'Unknown', 'Transport', 'Other enzymatic', 'Scaffold biosynthesis', 'Other', 'Precursor biosynthesis', 'Activation / processing']</t>
-  </si>
-  <si>
-    <t>'Proven expression in natural host' is not one of ['Heterologous expression', 'Knock-out studies', 'Other', 'Enzymatic assays', 'Gene expression correlated with compound production', 'Sequence-based prediction']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Other lipopeptide', 'Glycopeptidolipid', 'Cyclic depsipeptide', 'Pyrrolobenzodiazepine', 'Glycopeptide', 'NRP siderophore', 'Ca+-dependent lipopeptide', 'Uridylpeptide', 'Other', 'Beta-lactam']</t>
-  </si>
-  <si>
-    <t>'Scaffold Biosynthesis' is not one of ['Resistance/immunity', 'Tailoring', 'Regulation', 'Unknown', 'Transport', 'Other enzymatic', 'Scaffold biosynthesis', 'Other', 'Precursor biosynthesis', 'Activation / processing']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Sesterterpene', 'Polyterpene', 'Tetraterpene', 'Hemiterpene', 'Homoterpene (C11)', 'Monoterpene', 'Sesquiterpene', 'Sesquarterpene', 'Triterpene', 'Other', 'Homoterpene (C16)', 'Norisoprenoid', 'Diterpene']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Polyene', 'Anthracycline', 'Polyether', 'Tetracenomycin', 'Angucycline', 'Enediyine', 'Stilbene', 'Macrolide', 'Polyphenol', 'Other', 'Ansamycin', 'Chalcone', 'Benzoisochromanequinone', 'Tetracycline', 'Aryl polyene']</t>
-  </si>
-  <si>
-    <t>'3-amino-4-hydroxybenzoic acid' is not one of ['Orsellinic acid', 'Indole group', 'Lipid', 'Benzoic acid', 'Polyamino alcohol', '3-Amino-5-hydroxybenzoic acid', '3-Dimethylallyl-4-hydroxybenzoic acid', 'Pyrrole ring', '6-methylsalicylic acid', 'Other', 'Coumarin group']</t>
-  </si>
-  <si>
-    <t>'Asparigine' is not one of ['Histidine', 'Serine', 'Arginine', 'Alanine', 'Valine', 'Methionine', 'Asparagine', 'Glutamine', 'Glycine', 'Phenylalanine', 'Aspartate', 'Glutamate', 'Tryptophan', 'Threonine', 'Isoleucine', 'Proline', 'Leucine', 'Tyrosine', 'Cysteine', 'Lysine']</t>
-  </si>
-  <si>
-    <t>'Lap' is not one of ['Thiopeptide', 'Bottromycin', 'Head-to-tailcyclized peptide', 'Glycocin', 'Sactipeptide', 'Cyclotide', 'Lanthipeptide', 'Conopeptide', 'Amatoxin/phallotoxin', 'Orbitide', 'Other', 'Linaridin', 'Microviridin', 'Microcin', 'Cyanobactin', 'Proteusin', 'LAP', 'Lassopeptide']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Thiopeptide', 'Bottromycin', 'Head-to-tailcyclized peptide', 'Glycocin', 'Sactipeptide', 'Cyclotide', 'Lanthipeptide', 'Conopeptide', 'Amatoxin/phallotoxin', 'Orbitide', 'Other', 'Linaridin', 'Microviridin', 'Microcin', 'Cyanobactin', 'Proteusin', 'LAP', 'Lassopeptide']</t>
-  </si>
-  <si>
-    <t>'Lantipeptide' is not one of ['Thiopeptide', 'Bottromycin', 'Head-to-tailcyclized peptide', 'Glycocin', 'Sactipeptide', 'Cyclotide', 'Lanthipeptide', 'Conopeptide', 'Amatoxin/phallotoxin', 'Orbitide', 'Other', 'Linaridin', 'Microviridin', 'Microcin', 'Cyanobactin', 'Proteusin', 'LAP', 'Lassopeptide']</t>
-  </si>
-  <si>
-    <t>'Lasso Peptide' is not one of ['Thiopeptide', 'Bottromycin', 'Head-to-tailcyclized peptide', 'Glycocin', 'Sactipeptide', 'Cyclotide', 'Lanthipeptide', 'Conopeptide', 'Amatoxin/phallotoxin', 'Orbitide', 'Other', 'Linaridin', 'Microviridin', 'Microcin', 'Cyanobactin', 'Proteusin', 'LAP', 'Lassopeptide']</t>
-  </si>
-  <si>
-    <t>'Lap / Microcin' is not one of ['Thiopeptide', 'Bottromycin', 'Head-to-tailcyclized peptide', 'Glycocin', 'Sactipeptide', 'Cyclotide', 'Lanthipeptide', 'Conopeptide', 'Amatoxin/phallotoxin', 'Orbitide', 'Other', 'Linaridin', 'Microviridin', 'Microcin', 'Cyanobactin', 'Proteusin', 'LAP', 'Lassopeptide']</t>
-  </si>
-  <si>
-    <t>'Head-To-Tail Cyclized Peptide' is not one of ['Thiopeptide', 'Bottromycin', 'Head-to-tailcyclized peptide', 'Glycocin', 'Sactipeptide', 'Cyclotide', 'Lanthipeptide', 'Conopeptide', 'Amatoxin/phallotoxin', 'Orbitide', 'Other', 'Linaridin', 'Microviridin', 'Microcin', 'Cyanobactin', 'Proteusin', 'LAP', 'Lassopeptide']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Glucosinate', 'Fatty acid', 'Phosphonate', 'Phosphoglycolipid', 'Cyclitol', 'Non-NRP siderophore', 'Shikimate-derived', 'Amino acid-derived', 'Butyrolactone', 'Aminocoumarin', 'Ectoine', 'Furan', 'Homoserine lactone', 'Melanin', 'Phenazine', 'Other', 'Non-NRP beta-lactam', 'tRNA-derived', 'Nucleoside']</t>
-  </si>
-  <si>
-    <t>'other' is not one of ['Glucosinate', 'Fatty acid', 'Phosphonate', 'Phosphoglycolipid', 'Cyclitol', 'Non-NRP siderophore', 'Shikimate-derived', 'Amino acid-derived', 'Butyrolactone', 'Aminocoumarin', 'Ectoine', 'Furan', 'Homoserine lactone', 'Melanin', 'Phenazine', 'Other', 'Non-NRP beta-lactam', 'tRNA-derived', 'Nucleoside']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Decarboxylation', 'Halogenation', 'Hydrolysis', 'Glycosylation', 'Epimerization', 'Heterocyclization', 'Dioxygenation', 'Phosphorylation', 'Acylation', 'Oxidation', 'Deamination', 'Sulfation', 'Acetylation', 'Monooxygenation', 'Dehydration', 'Reduction', 'Unknown', 'Other', 'Hydroxylation', 'Carboxylation', 'Demethylation', 'Amination', 'Deoxygenation', 'Methylation', 'Prenylation']</t>
-  </si>
-  <si>
-    <t>'Dehydrogenation' is not one of ['Decarboxylation', 'Halogenation', 'Hydrolysis', 'Glycosylation', 'Epimerization', 'Heterocyclization', 'Dioxygenation', 'Phosphorylation', 'Acylation', 'Oxidation', 'Deamination', 'Sulfation', 'Acetylation', 'Monooxygenation', 'Dehydration', 'Reduction', 'Unknown', 'Other', 'Hydroxylation', 'Carboxylation', 'Demethylation', 'Amination', 'Deoxygenation', 'Methylation', 'Prenylation']</t>
-  </si>
-  <si>
-    <t>'FADH2 supply for chlorination' is not one of ['Decarboxylation', 'Halogenation', 'Hydrolysis', 'Glycosylation', 'Epimerization', 'Heterocyclization', 'Dioxygenation', 'Phosphorylation', 'Acylation', 'Oxidation', 'Deamination', 'Sulfation', 'Acetylation', 'Monooxygenation', 'Dehydration', 'Reduction', 'Unknown', 'Other', 'Hydroxylation', 'Carboxylation', 'Demethylation', 'Amination', 'Deoxygenation', 'Methylation', 'Prenylation']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['Malonyl-CoA', 'Benzoyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Methylmalonyl-CoA', 'Aminomalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Acetyl-CoA', 'Malonamyl-CoA', 'Trans-cyclopentane-(1R,2R)-dicarboxylic acid', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'methylmalonate-CoA' is not one of ['Malonyl-CoA', 'Benzoyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Methylmalonyl-CoA', 'Aminomalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Acetyl-CoA', 'Malonamyl-CoA', 'Trans-cyclopentane-(1R,2R)-dicarboxylic acid', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'4-hydroxyphenylpyruvate' is not one of ['Malonyl-CoA', 'Benzoyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Methylmalonyl-CoA', 'Aminomalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Acetyl-CoA', 'Malonamyl-CoA', 'Trans-cyclopentane-(1R,2R)-dicarboxylic acid', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'N/A' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'malonyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Decanoyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'methylmalonyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'phenylacetate-like' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Cyclohexylcarbonyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'4-hydroxyphenylpyruvate' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Acetyl-CoA + Malonyl CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Various atypical acyl-CoAs' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Acetyl-CoA/Methylmalonyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Methylmalonyl-CoA/Malonyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Malonyl-CoA/Malonyl-CoA/Malonyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Methylmalonyl-CoA/Methylmalonyl-CoA' is not one of ['None', 'Malonyl-CoA', 'Benzoyl-CoA', 'Acetoacetyl-CoA', 'Propionyl-CoA', '3,5-AHBA-CoA', 'Aminomalonyl-CoA', 'Methylmalonyl-CoA', '3-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Butyryl-ACP', 'Hexanoyl-ACP', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Ethylmalonyl-CoA', 'Hydroxymalonyl-CoA', 'Multiple (promiscuous)', 'Mycolate', 'Glycolate', 'Methoxymalonyl-CoA', 'Unknown', 'p-Coumaroyl-CoA', 'Other', 'Cyclohexylcarbonyl-CoA ', 'Acetyl-CoA', 'Malonamyl-CoA', '2-Methylbutyryl-CoA', 'p-Nitrobenzoate']</t>
-  </si>
-  <si>
-    <t>'Lysine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Valine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Serine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Glycine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Alanine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Proline' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Tyrosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-serine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-valine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Pyruvate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'tyrosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Arginine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Cysteine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-lysine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Glutamine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Threonine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-alanine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'(4-Pe)Pro' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-leucine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-proline' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Argininal' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Sarcosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-Alanine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'(3-Ncp)Ala' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'m-Tyrosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Asparigine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'DAFFLGVTFK' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'DAWLFGLIDK' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'DAWTIAAVCK' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'DILALGLIWK' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'DVQFIAHVVK' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'VGVWVAASGK' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-glutamine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Proprionate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Anthranilate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'(beta-Me)Phe' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-tryptophan' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Cysteic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'glycocyamine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Phenylalanine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Coumaric acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Glycolic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Phenylacetate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Hydrocinnamate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'4-Methylproline' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-allothreonine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3-Methylproline' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'N-methylglycine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Hydroxyaspartate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Arginine / Lysine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'4-Chlorothreonine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'guanidinoacetate ' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Norcoronamic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Homophenylalanine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Valine, isoleucine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'N-methyl-threonine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Beta-methylleucine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Isoleucine; Valine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Leucine / Arginine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3-hydroxyglutamine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Indole pyruvic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'methyl beta-alanine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Hydroxyphenylglycine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Glutamine / Tyrosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Beta-methoxyaspartate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'2-oxo-isovaleric acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'D-N2-methylasparagine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3-methylaspartic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'4,5-dihydroxyornithine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Beta-hydroxyasparagine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Phenylalanine, Tyrosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3-hydroxypicolinic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3,4-hydroxyhomotyrosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'alpha-ketoisocaproic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'alpha-ketoisovaleric acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3-hydroxy-4-methylproline' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'L-2,4-Diaminobutyric acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3,5-Dihydroxyphenylglycine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Didehydroaminobutyric acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Dihydroxy hexadecanoic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'(4S)-5,5,5-trichloroleucine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Aspartate / N-methylaspartate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'(2S,3S)-2,3-Diaminobutyric acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'4-acetamidopyrrole-2-carboxylate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'2,3-Diamino-3-methylpropanoic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'2-amino-9,10-epoxi-8-oxodecanoic acid' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'3-hydroxy-4-O-methyl-5-methyl-tyrosine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Glutamate or (2S, 3R)-3-methylglutamate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'Asparigine or (2S, 3S)-3-hydroxyasparagine' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'(Phenylalanine, Tryptophane),(Valine, Isoleucine)' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'(2S,3R)-2-amino-3-hydroxy-4-(4-nitrophenyl)butanoate' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>'None' is not one of ['D-arabinose', 'D-desosamine', 'Kedarosamine', 'D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'D-galactose', 'L-digitoxose', 'L-nogalose', '3-methoxy-D-mannose', 'D-chalcose', 'D-angolosamine', 'D-glucose', 'D-glucosamine', '6-deoxy-3-C-methyl-L-mannose', '3-O-carbamoyl-4-O-methyl-L-noviose', 'N-5-acetylneuraminic acid', '3-O-methyl-rhamnose', '3-O-carbamoyl-L-noviose', 'Other', 'L-cladinose', 'L-noviose', '2-deoxy-L-fucose', 'L-rhodosamine ', '2-O-methyl-L-rhamnose', 'D-fucofuranose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-daunosamine ', '3,4-O-dimethyl-L-rhamnose', 'L-boivinose', '4,6-dideoxy-4-hydroxylamino-D-glucose', 'Namenamicin sugar C', 'Nogalamine', '2,4-O-dimethyl-L-rhamnose', 'L-rhamnose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'L-cinerulose A', '4-O-methyl-L-rhodinose', '3-N,N-dimethyl-L-eremosamine', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-mannose', 'L-quinovose', 'N,N-dimethyl-L-pyrrolosamine', 'D-quinovose', 'O-methyl-L-amicetose', 'L-fucose', '4-O-carbamoyl-D-olivose', 'Olivomycose (L-chromose B)', 'D-rhamnose', '3-epi-L-vancosamine', 'L-cinerulose B', 'D-fucose', '2,3-O-dimethyl-L-rhamnose', '3-O-methyl-L-olivose/L-oleandrose', 'L-ristosamine', '4-oxo-L-vancosamine', 'Multiple (promiscuous)', 'Rednose', '4-deoxy-4-methylthio-a-D-digitoxose ', '3-N,N-dimethyl-D-mycosamine', 'Olivomose', 'L-acosamine', 'D-galacturonic acid', '4-deoxy-4-thio-D-digitoxose ', '4-O-acetyl-L-arcanose', 'D-forosamine', 'Ketodeoxyoctonic acid', '2,3,4-tri-O-methylrhamnose', 'N-acetyl-D-glucosamine', '6-methoxy-D-glucose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'D-mycosamine', 'L-actinosamine', 'L-megosamine', 'L-vancosamine', 'D-mycarose', 'N-acetyl-D-galactose', 'D-olivose ', 'L-rhodinose', 'L-vicenisamine', 'L-aculose', 'Unknown', "2'-N-methyl-D-fucosamine", '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'D-ravidosamine', 'D-oliose', '3-N-acetyl-D-ravidosamine', '2-thioglucose', 'D-digitalose', 'Glucuronic acid', '4-O-acetyl-D-ravidosamine']</t>
-  </si>
-  <si>
-    <t>'mycoamine' is not one of ['D-arabinose', 'D-desosamine', 'Kedarosamine', 'D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'D-galactose', 'L-digitoxose', 'L-nogalose', '3-methoxy-D-mannose', 'D-chalcose', 'D-angolosamine', 'D-glucose', 'D-glucosamine', '6-deoxy-3-C-methyl-L-mannose', '3-O-carbamoyl-4-O-methyl-L-noviose', 'N-5-acetylneuraminic acid', '3-O-methyl-rhamnose', '3-O-carbamoyl-L-noviose', 'Other', 'L-cladinose', 'L-noviose', '2-deoxy-L-fucose', 'L-rhodosamine ', '2-O-methyl-L-rhamnose', 'D-fucofuranose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-daunosamine ', '3,4-O-dimethyl-L-rhamnose', 'L-boivinose', '4,6-dideoxy-4-hydroxylamino-D-glucose', 'Namenamicin sugar C', 'Nogalamine', '2,4-O-dimethyl-L-rhamnose', 'L-rhamnose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'L-cinerulose A', '4-O-methyl-L-rhodinose', '3-N,N-dimethyl-L-eremosamine', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-mannose', 'L-quinovose', 'N,N-dimethyl-L-pyrrolosamine', 'D-quinovose', 'O-methyl-L-amicetose', 'L-fucose', '4-O-carbamoyl-D-olivose', 'Olivomycose (L-chromose B)', 'D-rhamnose', '3-epi-L-vancosamine', 'L-cinerulose B', 'D-fucose', '2,3-O-dimethyl-L-rhamnose', '3-O-methyl-L-olivose/L-oleandrose', 'L-ristosamine', '4-oxo-L-vancosamine', 'Multiple (promiscuous)', 'Rednose', '4-deoxy-4-methylthio-a-D-digitoxose ', '3-N,N-dimethyl-D-mycosamine', 'Olivomose', 'L-acosamine', 'D-galacturonic acid', '4-deoxy-4-thio-D-digitoxose ', '4-O-acetyl-L-arcanose', 'D-forosamine', 'Ketodeoxyoctonic acid', '2,3,4-tri-O-methylrhamnose', 'N-acetyl-D-glucosamine', '6-methoxy-D-glucose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'D-mycosamine', 'L-actinosamine', 'L-megosamine', 'L-vancosamine', 'D-mycarose', 'N-acetyl-D-galactose', 'D-olivose ', 'L-rhodinose', 'L-vicenisamine', 'L-aculose', 'Unknown', "2'-N-methyl-D-fucosamine", '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'D-ravidosamine', 'D-oliose', '3-N-acetyl-D-ravidosamine', '2-thioglucose', 'D-digitalose', 'Glucuronic acid', '4-O-acetyl-D-ravidosamine']</t>
-  </si>
-  <si>
-    <t>'D-olivose' is not one of ['D-arabinose', 'D-desosamine', 'Kedarosamine', 'D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'D-galactose', 'L-digitoxose', 'L-nogalose', '3-methoxy-D-mannose', 'D-chalcose', 'D-angolosamine', 'D-glucose', 'D-glucosamine', '6-deoxy-3-C-methyl-L-mannose', '3-O-carbamoyl-4-O-methyl-L-noviose', 'N-5-acetylneuraminic acid', '3-O-methyl-rhamnose', '3-O-carbamoyl-L-noviose', 'Other', 'L-cladinose', 'L-noviose', '2-deoxy-L-fucose', 'L-rhodosamine ', '2-O-methyl-L-rhamnose', 'D-fucofuranose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-daunosamine ', '3,4-O-dimethyl-L-rhamnose', 'L-boivinose', '4,6-dideoxy-4-hydroxylamino-D-glucose', 'Namenamicin sugar C', 'Nogalamine', '2,4-O-dimethyl-L-rhamnose', 'L-rhamnose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'L-cinerulose A', '4-O-methyl-L-rhodinose', '3-N,N-dimethyl-L-eremosamine', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-mannose', 'L-quinovose', 'N,N-dimethyl-L-pyrrolosamine', 'D-quinovose', 'O-methyl-L-amicetose', 'L-fucose', '4-O-carbamoyl-D-olivose', 'Olivomycose (L-chromose B)', 'D-rhamnose', '3-epi-L-vancosamine', 'L-cinerulose B', 'D-fucose', '2,3-O-dimethyl-L-rhamnose', '3-O-methyl-L-olivose/L-oleandrose', 'L-ristosamine', '4-oxo-L-vancosamine', 'Multiple (promiscuous)', 'Rednose', '4-deoxy-4-methylthio-a-D-digitoxose ', '3-N,N-dimethyl-D-mycosamine', 'Olivomose', 'L-acosamine', 'D-galacturonic acid', '4-deoxy-4-thio-D-digitoxose ', '4-O-acetyl-L-arcanose', 'D-forosamine', 'Ketodeoxyoctonic acid', '2,3,4-tri-O-methylrhamnose', 'N-acetyl-D-glucosamine', '6-methoxy-D-glucose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'D-mycosamine', 'L-actinosamine', 'L-megosamine', 'L-vancosamine', 'D-mycarose', 'N-acetyl-D-galactose', 'D-olivose ', 'L-rhodinose', 'L-vicenisamine', 'L-aculose', 'Unknown', "2'-N-methyl-D-fucosamine", '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'D-ravidosamine', 'D-oliose', '3-N-acetyl-D-ravidosamine', '2-thioglucose', 'D-digitalose', 'Glucuronic acid', '4-O-acetyl-D-ravidosamine']</t>
-  </si>
-  <si>
-    <t>'mycaminose' is not one of ['D-arabinose', 'D-desosamine', 'Kedarosamine', 'D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'D-galactose', 'L-digitoxose', 'L-nogalose', '3-methoxy-D-mannose', 'D-chalcose', 'D-angolosamine', 'D-glucose', 'D-glucosamine', '6-deoxy-3-C-methyl-L-mannose', '3-O-carbamoyl-4-O-methyl-L-noviose', 'N-5-acetylneuraminic acid', '3-O-methyl-rhamnose', '3-O-carbamoyl-L-noviose', 'Other', 'L-cladinose', 'L-noviose', '2-deoxy-L-fucose', 'L-rhodosamine ', '2-O-methyl-L-rhamnose', 'D-fucofuranose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-daunosamine ', '3,4-O-dimethyl-L-rhamnose', 'L-boivinose', '4,6-dideoxy-4-hydroxylamino-D-glucose', 'Namenamicin sugar C', 'Nogalamine', '2,4-O-dimethyl-L-rhamnose', 'L-rhamnose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'L-cinerulose A', '4-O-methyl-L-rhodinose', '3-N,N-dimethyl-L-eremosamine', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-mannose', 'L-quinovose', 'N,N-dimethyl-L-pyrrolosamine', 'D-quinovose', 'O-methyl-L-amicetose', 'L-fucose', '4-O-carbamoyl-D-olivose', 'Olivomycose (L-chromose B)', 'D-rhamnose', '3-epi-L-vancosamine', 'L-cinerulose B', 'D-fucose', '2,3-O-dimethyl-L-rhamnose', '3-O-methyl-L-olivose/L-oleandrose', 'L-ristosamine', '4-oxo-L-vancosamine', 'Multiple (promiscuous)', 'Rednose', '4-deoxy-4-methylthio-a-D-digitoxose ', '3-N,N-dimethyl-D-mycosamine', 'Olivomose', 'L-acosamine', 'D-galacturonic acid', '4-deoxy-4-thio-D-digitoxose ', '4-O-acetyl-L-arcanose', 'D-forosamine', 'Ketodeoxyoctonic acid', '2,3,4-tri-O-methylrhamnose', 'N-acetyl-D-glucosamine', '6-methoxy-D-glucose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'D-mycosamine', 'L-actinosamine', 'L-megosamine', 'L-vancosamine', 'D-mycarose', 'N-acetyl-D-galactose', 'D-olivose ', 'L-rhodinose', 'L-vicenisamine', 'L-aculose', 'Unknown', "2'-N-methyl-D-fucosamine", '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'D-ravidosamine', 'D-oliose', '3-N-acetyl-D-ravidosamine', '2-thioglucose', 'D-digitalose', 'Glucuronic acid', '4-O-acetyl-D-ravidosamine']</t>
-  </si>
-  <si>
-    <t>'L-Rhodinose' is not one of ['D-arabinose', 'D-desosamine', 'Kedarosamine', 'D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'D-galactose', 'L-digitoxose', 'L-nogalose', '3-methoxy-D-mannose', 'D-chalcose', 'D-angolosamine', 'D-glucose', 'D-glucosamine', '6-deoxy-3-C-methyl-L-mannose', '3-O-carbamoyl-4-O-methyl-L-noviose', 'N-5-acetylneuraminic acid', '3-O-methyl-rhamnose', '3-O-carbamoyl-L-noviose', 'Other', 'L-cladinose', 'L-noviose', '2-deoxy-L-fucose', 'L-rhodosamine ', '2-O-methyl-L-rhamnose', 'D-fucofuranose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-daunosamine ', '3,4-O-dimethyl-L-rhamnose', 'L-boivinose', '4,6-dideoxy-4-hydroxylamino-D-glucose', 'Namenamicin sugar C', 'Nogalamine', '2,4-O-dimethyl-L-rhamnose', 'L-rhamnose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'L-cinerulose A', '4-O-methyl-L-rhodinose', '3-N,N-dimethyl-L-eremosamine', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-mannose', 'L-quinovose', 'N,N-dimethyl-L-pyrrolosamine', 'D-quinovose', 'O-methyl-L-amicetose', 'L-fucose', '4-O-carbamoyl-D-olivose', 'Olivomycose (L-chromose B)', 'D-rhamnose', '3-epi-L-vancosamine', 'L-cinerulose B', 'D-fucose', '2,3-O-dimethyl-L-rhamnose', '3-O-methyl-L-olivose/L-oleandrose', 'L-ristosamine', '4-oxo-L-vancosamine', 'Multiple (promiscuous)', 'Rednose', '4-deoxy-4-methylthio-a-D-digitoxose ', '3-N,N-dimethyl-D-mycosamine', 'Olivomose', 'L-acosamine', 'D-galacturonic acid', '4-deoxy-4-thio-D-digitoxose ', '4-O-acetyl-L-arcanose', 'D-forosamine', 'Ketodeoxyoctonic acid', '2,3,4-tri-O-methylrhamnose', 'N-acetyl-D-glucosamine', '6-methoxy-D-glucose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'D-mycosamine', 'L-actinosamine', 'L-megosamine', 'L-vancosamine', 'D-mycarose', 'N-acetyl-D-galactose', 'D-olivose ', 'L-rhodinose', 'L-vicenisamine', 'L-aculose', 'Unknown', "2'-N-methyl-D-fucosamine", '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'D-ravidosamine', 'D-oliose', '3-N-acetyl-D-ravidosamine', '2-thioglucose', 'D-digitalose', 'Glucuronic acid', '4-O-acetyl-D-ravidosamine']</t>
-  </si>
-  <si>
-    <t>dhb' is not one of ['Homoproline', 'Hydroxyasparagine', '2,3-Dehydro-2-aminobutyric acid', '2,3-Diaminopropionic acid', '2,3-Dihydroxybenzoic acid', 'N-Methyl-isoleucine', 'Beta-alanine', 'N-Methyl-phenylalanine', 'N-Methyl-valine', 'Phenylalaninol', 'Citrulline', 'Pipecolic acid', '2-Aminobutyricacid', 'N5-Hydroxyornithine', 'N-Methyl-phenylglycine', '2-Hydroxyisovalerate', 'Homoserine', 'Phenylglycine', '2-Amino-adipic-acid', '3,5-Dihydroxy-phenylglycine', '4-Hydroxyproline', 'N-Acetyl-hydroxyornithine', 'N-Methyl-hydroxyphenylglycine', 'Isovaline', 'Putrescine', 'Ornithine', 'Other', 'Hydroxy-cycloornithine', 'Kynurenine', 'Allo-threonine', '2-Aminoisobutyricacid', 'Hydroxyaspartic acid', 'N6-Formyl-hydroxyornithine', 'N-Methyl-leucine', 'N-Methyl-Glycine', '2-Hydroxy-3-methyl-pentanoic acid', '4-Hydroxyphenylglycine', 'Salicylic acid', 'Homotyrosine', '2,4-Diaminobutyric acid', 'N-Methyl-alanine', 'Beta-hydroxytyrosine']</t>
-  </si>
-  <si>
-    <t>L-forosamine' is not one of ['D-arabinose', 'D-desosamine', 'Kedarosamine', 'D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'D-galactose', 'L-digitoxose', 'L-nogalose', '3-methoxy-D-mannose', 'D-chalcose', 'D-angolosamine', 'D-glucose', 'D-glucosamine', '6-deoxy-3-C-methyl-L-mannose', '3-O-carbamoyl-4-O-methyl-L-noviose', 'N-5-acetylneuraminic acid', '3-O-methyl-rhamnose', '3-O-carbamoyl-L-noviose', 'Other', 'L-cladinose', 'L-noviose', '2-deoxy-L-fucose', 'L-rhodosamine ', '2-O-methyl-L-rhamnose', 'D-fucofuranose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-daunosamine ', '3,4-O-dimethyl-L-rhamnose', 'L-boivinose', '4,6-dideoxy-4-hydroxylamino-D-glucose', 'Namenamicin sugar C', 'Nogalamine', '2,4-O-dimethyl-L-rhamnose', 'L-rhamnose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'L-cinerulose A', '4-O-methyl-L-rhodinose', '3-N,N-dimethyl-L-eremosamine', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-mannose', 'L-quinovose', 'N,N-dimethyl-L-pyrrolosamine', 'D-quinovose', 'O-methyl-L-amicetose', 'L-fucose', '4-O-carbamoyl-D-olivose', 'Olivomycose (L-chromose B)', 'D-rhamnose', '3-epi-L-vancosamine', 'L-cinerulose B', 'D-fucose', '2,3-O-dimethyl-L-rhamnose', '3-O-methyl-L-olivose/L-oleandrose', 'L-ristosamine', '4-oxo-L-vancosamine', 'Multiple (promiscuous)', 'Rednose', '4-deoxy-4-methylthio-a-D-digitoxose ', '3-N,N-dimethyl-D-mycosamine', 'Olivomose', 'L-acosamine', 'D-galacturonic acid', '4-deoxy-4-thio-D-digitoxose ', '4-O-acetyl-L-arcanose', 'D-forosamine', 'Ketodeoxyoctonic acid', '2,3,4-tri-O-methylrhamnose', 'N-acetyl-D-glucosamine', '6-methoxy-D-glucose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'D-mycosamine', 'L-actinosamine', 'L-megosamine', 'L-vancosamine', 'D-mycarose', 'N-acetyl-D-galactose', 'D-olivose ', 'L-rhodinose', 'L-vicenisamine', 'L-aculose', 'Unknown', "2'-N-methyl-D-fucosamine", '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'D-ravidosamine', 'D-oliose', '3-N-acetyl-D-ravidosamine', '2-thioglucose', 'D-digitalose', 'Glucuronic acid', '4-O-acetyl-D-ravidosamine']</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -952,9 +174,6 @@
     <t>properties.general_params.properties.saccharide.properties.gt_genes.items.properties.gt_specificity.enum</t>
   </si>
   <si>
-    <t>None;mycoamine;mycaminose;L-forosamine;D-olivose;L-Rhodinose</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.saccharide.properties.gt_genes.items.properties.evidence_gt_spec.enum</t>
   </si>
   <si>
@@ -967,9 +186,6 @@
     <t>properties.general_params.properties.saccharide.properties.gt_genes.items.allOf.0.if.then.required</t>
   </si>
   <si>
-    <t>properties.general_params.properties.ripp.required</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.ripp.properties.ripp_subclass.enum</t>
   </si>
   <si>
@@ -988,9 +204,6 @@
     <t>linear</t>
   </si>
   <si>
-    <t>properties.general_params.properties.polyketide.required</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.polyketide.properties.starter_unit.enum</t>
   </si>
   <si>
@@ -1015,9 +228,6 @@
     <t>properties.general_params.properties.polyketide.properties.pk_subclass.enum</t>
   </si>
   <si>
-    <t>properties.general_params.properties.polyketide.properties.mod_pks_genes.items.properties.pks_module.items.required</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.polyketide.properties.mod_pks_genes.items.properties.pks_module.items.properties.pks_mod_doms.items.enum</t>
   </si>
   <si>
@@ -1048,60 +258,24 @@
     <t>properties.general_params.properties.polyketide.properties.mod_pks_genes.items.properties.pks_module.items.properties.evidence_at_spec.enum</t>
   </si>
   <si>
-    <t>None;Feeding study</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.polyketide.properties.mod_pks_genes.items.properties.pks_module.items.properties.comments.type</t>
   </si>
   <si>
     <t>properties.general_params.properties.polyketide.properties.mod_pks_genes.items.properties.pks_module.items.properties.at_substr_spec.enum</t>
   </si>
   <si>
-    <t>malonyl-CoA;methylmalonyl-CoA;4-hydroxyphenylpyruvate;Acetyl-CoA/Methylmalonyl-CoA;Malonyl-CoA/Malonyl-CoA/Malonyl-CoA;Methylmalonyl-CoA/Malonyl-CoA;Methylmalonyl-CoA/Methylmalonyl-CoA;Various atypical acyl-CoAs;N/A;phenylacetate-like;Decanoyl-CoA;Acetyl-CoA + Malonyl CoA;Cyclohexylcarbonyl-CoA</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.polyketide.properties.mod_pks_genes.items.properties.pks_module.items.dependencies</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.polyketide.allOf.4.if.then.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.polyketide.allOf.4.if.then.properties.pks_thioesterase.minItems</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.polyketide.allOf.3.if.then.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.polyketide.allOf.2.if.then.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.polyketide.allOf.1.if.then.required</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.other.properties.other_subclass.enum</t>
   </si>
   <si>
     <t>other;None</t>
   </si>
   <si>
-    <t>properties.general_params.properties.nrp.required</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.nrp.properties.subclass.enum</t>
   </si>
   <si>
     <t>properties.general_params.properties.nrp.properties.nrps_release_type.enum</t>
   </si>
   <si>
-    <t>properties.general_params.properties.nrp.properties.nrps_genes.minItems</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.nrp.properties.nrps_genes.items.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.required</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.properties.nrps_mod_doms.enum</t>
   </si>
   <si>
@@ -1126,9 +300,6 @@
     <t>N/A;None</t>
   </si>
   <si>
-    <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.properties.a_substr_spec.required</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.properties.a_substr_spec.properties.prot_adom_spec.enum</t>
   </si>
   <si>
@@ -1144,24 +315,6 @@
     <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.properties.a_substr_spec.properties.evidence_a_spec.enum</t>
   </si>
   <si>
-    <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.properties.a_substr_spec.dependencies</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.allOf.1.if.then.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.nrp.properties.nrps_genes.items.properties.nrps_module.items.allOf.0.if.then.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.nrp.allOf.1.if.then.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.nrp.allOf.0.if.then.required</t>
-  </si>
-  <si>
-    <t>properties.general_params.properties.nrp.allOf.0.if.then.properties.nrps_thioesterase.minItems</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.loci.required</t>
   </si>
   <si>
@@ -1264,9 +417,6 @@
     <t>3-amino-4-hydroxybenzoic acid</t>
   </si>
   <si>
-    <t>properties.general_params.properties.compounds.items.properties.chem_moieties.items.dependencies</t>
-  </si>
-  <si>
     <t>properties.general_params.properties.compounds.items.properties.chem_act.items.enum</t>
   </si>
   <si>
@@ -1294,10 +444,952 @@
     <t>properties.general_params.allOf.0.if.then.required</t>
   </si>
   <si>
-    <t>path</t>
-  </si>
-  <si>
     <t>instances</t>
+  </si>
+  <si>
+    <t>/general_params/loci/nucl_acc[]/Accession</t>
+  </si>
+  <si>
+    <t>/general_params/compounds[]/database_deposited</t>
+  </si>
+  <si>
+    <t>/general_params/compounds[]/databases_deposited[]</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/pks_subclass[]</t>
+  </si>
+  <si>
+    <t>/general_params/loci/nucl_acc[]/conn_comp_cluster[]</t>
+  </si>
+  <si>
+    <t>/version</t>
+  </si>
+  <si>
+    <t>/general_params/genes/gene[]/not_in_gbk</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/lin_cycl_pk</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/starter_unit</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/pk_subclass</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/ripp_subclass</t>
+  </si>
+  <si>
+    <t>/general_params/Other/other_subclass</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/lin_cycl_nrp</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_release_type</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_te_type</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/subclass</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/pks_te_type</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_gene</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/pks_release_type</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/cdom_subtype</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/module_nr</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/nrps_mod_doms</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/aa_type</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/evidence_a_spec</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/nrps_mod_skip_iter</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/mod_pks_gene</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/module_nr</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/pks_domains[]</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/pks_mod_doms[]</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/pks_mod_skip_iter</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_thioesterase[]</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/epimerized</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/prot_adom_spec</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/at_substr_spec</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/evidence_at_spec</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/kr_stereochem</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/pks_genes[]</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/nonprot_adom_spec</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/lin_cycl_ripp</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/gene_id[]</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/lead_pept_len</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/peptidase[]</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/core_pept_aa[]</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/foll_pept_len</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/iterative_subtype</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/nr_iterations</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/pks_thioesterase[]</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/pks_evidence_skip_iter</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/ketide_length</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/cyclases[]</t>
+  </si>
+  <si>
+    <t>/general_params/Saccharide/saccharide_subclass</t>
+  </si>
+  <si>
+    <t>/general_params/Saccharide/gt_genes[]</t>
+  </si>
+  <si>
+    <t>/general_params/Saccharide/gt_genes[]/gt_specificity</t>
+  </si>
+  <si>
+    <t>/general_params/Saccharide/gt_genes[]/gt_gene</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/crosslinks[]</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/crosslinks[]/AA_pos_1</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/crosslinks[]/AA_pos_2</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/crosslinks[]/crosslink_type</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/iter_cycl_type</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/trans_at[]</t>
+  </si>
+  <si>
+    <t>/general_params/Alkaloid/alkaloid_subclass</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/nrps_evidence_skip_iter</t>
+  </si>
+  <si>
+    <t>/general_params/Terpene/prenyl_transf[]</t>
+  </si>
+  <si>
+    <t>/general_params/Terpene/terpene_c_len</t>
+  </si>
+  <si>
+    <t>/general_params/Terpene/terpene_precursor</t>
+  </si>
+  <si>
+    <t>/general_params/Terpene/terpene_subclass</t>
+  </si>
+  <si>
+    <t>/general_params/Terpene/terpene_synth_cycl[]</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/cleavage_recogn_site[]</t>
+  </si>
+  <si>
+    <t>/general_params/Saccharide/gt_genes[]/evidence_gt_spec</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/lipid_moiety</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/aa_subcluster[]</t>
+  </si>
+  <si>
+    <t>/general_params/Saccharide/gt_genes[]/sugar_subcluster[]</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/other_spec</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/comments</t>
+  </si>
+  <si>
+    <t>/general_params/RiPP/precursor_loci[]/recogn_motif</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/nrps_other_mod_dom</t>
+  </si>
+  <si>
+    <t>/general_params/Saccharide/gt_genes[]/other_gt_spec</t>
+  </si>
+  <si>
+    <t>/general_params/NRP/nrps_genes[]/nrps_module[]/a_substr_spec/a_multiple_spec</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/comments</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/mod_pks_genes[]/pks_module[]/pks_other_mod_dom</t>
+  </si>
+  <si>
+    <t>/general_params/Polyketide/pufa_mod_doms[]</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>None;mycoamine;mycaminose;L-forosamine;D-olivose ;L-rhodosamine ;L-Rhodinose</t>
+  </si>
+  <si>
+    <t>minItems</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>Feeding study</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>malonyl-CoA;methylmalonyl-CoA;4-hydroxyphenylpyruvate;Acetyl-CoA/Methylmalonyl-CoA;Malonyl-CoA/Malonyl-CoA/Malonyl-CoA;Methylmalonyl-CoA/Malonyl-CoA;Methylmalonyl-CoA/Methylmalonyl-CoA;Various atypical acyl-CoAs;N/A;phenylacetate-like;Decanoyl-CoA;Acetyl-CoA + Malonyl CoA</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>properties.general_params.properties.compounds.items.properties.chem_moieties.items.allOf.0.if.then.required</t>
+  </si>
+  <si>
+    <t>properties.general_params.allOf.2.if.then.properties.ripp.required</t>
+  </si>
+  <si>
+    <t>paths</t>
+  </si>
+  <si>
+    <t>None is not one of ['Scaffold biosynthesis', 'Tailoring', 'Resistance/immunity', 'Regulation', 'Other', 'Unknown', 'Precursor biosynthesis', 'Activation / processing', 'Other enzymatic', 'Transport']</t>
+  </si>
+  <si>
+    <t>'tyrosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'structure-based inference' is not one of ['Sequence-based prediction', 'Other', 'Structure-based inference', 'Activity assay', 'Knock-out construct']</t>
+  </si>
+  <si>
+    <t>'phenylacetate-like' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'partial' is not one of ['complete', 'incomplete', 'unknown']</t>
+  </si>
+  <si>
+    <t>'other_chem_moiety' is a required property</t>
+  </si>
+  <si>
+    <t>'other' is not one of ['Type I', 'Type II', 'Other', 'Unknown', 'Both', 'None']</t>
+  </si>
+  <si>
+    <t>'other' is not one of ['Homoserine lactone', 'Nucleoside', 'Ectoine', 'Non-NRP siderophore', 'Other', 'Butyrolactone', 'Amino acid-derived', 'Phosphonate', 'Aminocoumarin', 'Cyclitol', 'Melanin', 'Glucosinate', 'Shikimate-derived', 'tRNA-derived', 'Furan', 'Fatty acid', 'Phenazine', 'Non-NRP beta-lactam', 'Phosphoglycolipid']</t>
+  </si>
+  <si>
+    <t>'other in vivo study' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'none' is not one of ['[M-H–H2O]-', '[M+NH4]+', '[M+2H]2+', 'Other multiply charged ion', '[M+Na]+', '[M+H–H2O]+', '[M+K]+', '[M+X]-', '[M+Cl]-', 'Other', 'M-', '[M+H]+', 'M+', '[M-H]-']</t>
+  </si>
+  <si>
+    <t>'mycoamine' is not one of ['N-acetyl-D-glucosamine', 'O-methyl-L-amicetose', '3-N,N-dimethyl-D-mycosamine', 'L-rhodosamine', 'L-noviose', 'D-ravidosamine', 'D-fucose', 'L-boivinose', 'Namenamicin sugar C', '2-O-methyl-L-rhamnose', 'Olivomose', 'D-arabinose', '4-O-acetyl-D-ravidosamine', '6-methoxy-D-glucose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-cladinose', '4-oxo-L-vancosamine', '3-O-carbamoyl-4-O-methyl-L-noviose', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-digitoxose', '2-thioglucose', 'D-digitalose', '2-deoxy-L-fucose', 'D-desosamine', 'Ketodeoxyoctonic acid', 'D-forosamine', 'L-cinerulose A', '4-O-methyl-L-rhodinose', '2,3,4-tri-O-methylrhamnose', 'Other', 'D-olivose', 'Multiple (promiscuous)', 'L-quinovose', 'D-fucofuranose', '3-O-methyl-L-olivose/L-oleandrose', 'D-galacturonic acid', 'L-megosamine', '3-O-methyl-rhamnose', 'D-chalcose', 'L-aculose', 'D-glucose', '3-O-carbamoyl-L-noviose', 'D-mycarose', '3-methoxy-D-mannose', 'L-nogalose', '3-N-acetyl-D-ravidosamine', 'D-glucosamine', 'D-quinovose', 'L-vancosamine', '4-deoxy-4-thio-D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'L-actinosamine', 'L-digitoxose', 'L-acosamine', 'L-ristosamine', '2,4-O-dimethyl-L-rhamnose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'Rednose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'D-mannose', 'D-mycosamine', '4-deoxy-4-methylthio-a-D-digitoxose', 'N-acetyl-D-galactose', '3,4-O-dimethyl-L-rhamnose', 'Olivomycose (L-chromose B)', '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'Unknown', 'N,N-dimethyl-L-pyrrolosamine', '4-O-carbamoyl-D-olivose', '3-epi-L-vancosamine', 'Glucuronic acid', 'L-cinerulose B', 'D-rhamnose', '2,3-O-dimethyl-L-rhamnose', 'L-vicenisamine', 'Nogalamine', 'L-fucose', 'L-daunosamine', '6-deoxy-3-C-methyl-L-mannose', '4,6-dideoxy-4-hydroxylamino-D-glucose', '3-N,N-dimethyl-L-eremosamine', 'L-rhodinose', 'D-angolosamine', 'D-galactose', 'Kedarosamine', "2'-N-methyl-D-fucosamine", 'L-rhamnose', '4-O-acetyl-L-arcanose', 'D-oliose', 'N-5-acetylneuraminic acid']</t>
+  </si>
+  <si>
+    <t>'mycaminose' is not one of ['N-acetyl-D-glucosamine', 'O-methyl-L-amicetose', '3-N,N-dimethyl-D-mycosamine', 'L-rhodosamine', 'L-noviose', 'D-ravidosamine', 'D-fucose', 'L-boivinose', 'Namenamicin sugar C', '2-O-methyl-L-rhamnose', 'Olivomose', 'D-arabinose', '4-O-acetyl-D-ravidosamine', '6-methoxy-D-glucose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-cladinose', '4-oxo-L-vancosamine', '3-O-carbamoyl-4-O-methyl-L-noviose', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-digitoxose', '2-thioglucose', 'D-digitalose', '2-deoxy-L-fucose', 'D-desosamine', 'Ketodeoxyoctonic acid', 'D-forosamine', 'L-cinerulose A', '4-O-methyl-L-rhodinose', '2,3,4-tri-O-methylrhamnose', 'Other', 'D-olivose', 'Multiple (promiscuous)', 'L-quinovose', 'D-fucofuranose', '3-O-methyl-L-olivose/L-oleandrose', 'D-galacturonic acid', 'L-megosamine', '3-O-methyl-rhamnose', 'D-chalcose', 'L-aculose', 'D-glucose', '3-O-carbamoyl-L-noviose', 'D-mycarose', '3-methoxy-D-mannose', 'L-nogalose', '3-N-acetyl-D-ravidosamine', 'D-glucosamine', 'D-quinovose', 'L-vancosamine', '4-deoxy-4-thio-D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'L-actinosamine', 'L-digitoxose', 'L-acosamine', 'L-ristosamine', '2,4-O-dimethyl-L-rhamnose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'Rednose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'D-mannose', 'D-mycosamine', '4-deoxy-4-methylthio-a-D-digitoxose', 'N-acetyl-D-galactose', '3,4-O-dimethyl-L-rhamnose', 'Olivomycose (L-chromose B)', '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'Unknown', 'N,N-dimethyl-L-pyrrolosamine', '4-O-carbamoyl-D-olivose', '3-epi-L-vancosamine', 'Glucuronic acid', 'L-cinerulose B', 'D-rhamnose', '2,3-O-dimethyl-L-rhamnose', 'L-vicenisamine', 'Nogalamine', 'L-fucose', 'L-daunosamine', '6-deoxy-3-C-methyl-L-mannose', '4,6-dideoxy-4-hydroxylamino-D-glucose', '3-N,N-dimethyl-L-eremosamine', 'L-rhodinose', 'D-angolosamine', 'D-galactose', 'Kedarosamine', "2'-N-methyl-D-fucosamine", 'L-rhamnose', '4-O-acetyl-L-arcanose', 'D-oliose', 'N-5-acetylneuraminic acid']</t>
+  </si>
+  <si>
+    <t>'methylmalonyl-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'methylmalonate-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', '2-Methylbutyryl-CoA', 'Unknown', 'p-Aminobenzoate', 'Trans-cyclopentane-(1R,2R)-dicarboxylic acid', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', '3-Amino-2-Methylpropionate', 'Mycolate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'methyl beta-alanine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'malonyl-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'m-Tyrosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'linear' is not one of ['Cyclic', 'Linear']</t>
+  </si>
+  <si>
+    <t>'knock out' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'hyrbid/tailoring' is not one of ['lipopolysaccharide', 'aminoglycoside', 'capsular polysaccharide', 'hybrid/tailoring', 'exopolysaccharide', 'aminocyclitol', 'other', 'oligosaccharide']</t>
+  </si>
+  <si>
+    <t>'heterologous expression' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'guanidinoacetate ' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'glycocyamine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'dhb' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'alpha-ketoisovaleric acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'alpha-ketoisocaproic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'activity assay' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'[M+H-H2O]+' is not one of ['[M-H–H2O]-', '[M+NH4]+', '[M+2H]2+', 'Other multiply charged ion', '[M+Na]+', '[M+H–H2O]+', '[M+K]+', '[M+X]-', '[M+Cl]-', 'Other', 'M-', '[M+H]+', 'M+', '[M-H]-']</t>
+  </si>
+  <si>
+    <t>'Various atypical acyl-CoAs' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'Valine, isoleucine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Valine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'VGVWVAASGK' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Tyrosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Type I' is not one of ['Enediyne type I', 'Type II', 'Other', 'Type III', 'Iterative type I', 'Trans-AT type I', 'Modular type I', 'PUFA synthase or related']</t>
+  </si>
+  <si>
+    <t>'Threonine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'TR' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'TE/CLC' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'TE' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'T' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'Serine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Sequence based prediction' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'Scaffold Biosynthesis' is not one of ['Scaffold biosynthesis', 'Tailoring', 'Resistance/immunity', 'Regulation', 'Other', 'Unknown', 'Precursor biosynthesis', 'Activation / processing', 'Other enzymatic', 'Transport']</t>
+  </si>
+  <si>
+    <t>'Sarcosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'ST' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'SAT' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'Resistance/immunity' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'Pyruvate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Proven expression in natural host' is not one of ['Sequence-based prediction', 'Knock-out studies', 'Other', 'Gene expression correlated with compound production', 'Enzymatic assays', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'Proprionate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Proline' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Pigment' is not one of ['Antifungal', 'Antioxidant', 'Antibacterial', 'Surfactant', 'Inhibitor', 'Other', 'Unknown', 'Siderophore', 'Signalling', 'Cytotoxic']</t>
+  </si>
+  <si>
+    <t>'Phenylalanine, Tyrosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Phenylalanine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Phenylacetate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'PT' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'PPTASE' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'Oxidation' is not one of ['Michael branching', 'Other', 'Methylation', 'Amination', 'Beta-branching', 'Pyran synthase', 'None']</t>
+  </si>
+  <si>
+    <t>'Overexpression' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'Other in vivo studies' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'Nucleoside' is not one of ['Saccharide', 'RiPP', 'Other', 'Terpene', 'NRP', 'Alkaloid', 'Polyketide']</t>
+  </si>
+  <si>
+    <t>'Norcoronamic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['[M-H–H2O]-', '[M+NH4]+', '[M+2H]2+', 'Other multiply charged ion', '[M+Na]+', '[M+H–H2O]+', '[M+K]+', '[M+X]-', '[M+Cl]-', 'Other', 'M-', '[M+H]+', 'M+', '[M-H]-']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Scaffold biosynthesis', 'Tailoring', 'Resistance/immunity', 'Regulation', 'Other', 'Unknown', 'Precursor biosynthesis', 'Activation / processing', 'Other enzymatic', 'Transport']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Reductive release', 'Macrolactonization', 'Macrothiolactonization', 'Other', 'Unknown', 'Macrolactamization', 'Hydrolysis']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Reductive release', 'Macrolactonization', 'Macrothiolactonization', 'Claisen condensation', 'Other', 'Unknown', 'Macrolactamization', 'Hydrolysis']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Quinone', 'Dolichol', 'Other', 'Carotenoid', 'Hopanoid', 'Tocopherol', 'Sterol', 'Gibberellin']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Other', 'Lactone', 'Thioether', 'Ether', 'Lactam']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['NPP', 'UPP', 'Other', 'GGPP', 'FPP', 'GFPP', 'GPP', 'IPP', 'DMAPP']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['N-acetyl-D-glucosamine', 'O-methyl-L-amicetose', '3-N,N-dimethyl-D-mycosamine', 'L-rhodosamine', 'L-noviose', 'D-ravidosamine', 'D-fucose', 'L-boivinose', 'Namenamicin sugar C', '2-O-methyl-L-rhamnose', 'Olivomose', 'D-arabinose', '4-O-acetyl-D-ravidosamine', '6-methoxy-D-glucose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-cladinose', '4-oxo-L-vancosamine', '3-O-carbamoyl-4-O-methyl-L-noviose', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-digitoxose', '2-thioglucose', 'D-digitalose', '2-deoxy-L-fucose', 'D-desosamine', 'Ketodeoxyoctonic acid', 'D-forosamine', 'L-cinerulose A', '4-O-methyl-L-rhodinose', '2,3,4-tri-O-methylrhamnose', 'Other', 'D-olivose', 'Multiple (promiscuous)', 'L-quinovose', 'D-fucofuranose', '3-O-methyl-L-olivose/L-oleandrose', 'D-galacturonic acid', 'L-megosamine', '3-O-methyl-rhamnose', 'D-chalcose', 'L-aculose', 'D-glucose', '3-O-carbamoyl-L-noviose', 'D-mycarose', '3-methoxy-D-mannose', 'L-nogalose', '3-N-acetyl-D-ravidosamine', 'D-glucosamine', 'D-quinovose', 'L-vancosamine', '4-deoxy-4-thio-D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'L-actinosamine', 'L-digitoxose', 'L-acosamine', 'L-ristosamine', '2,4-O-dimethyl-L-rhamnose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'Rednose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'D-mannose', 'D-mycosamine', '4-deoxy-4-methylthio-a-D-digitoxose', 'N-acetyl-D-galactose', '3,4-O-dimethyl-L-rhamnose', 'Olivomycose (L-chromose B)', '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'Unknown', 'N,N-dimethyl-L-pyrrolosamine', '4-O-carbamoyl-D-olivose', '3-epi-L-vancosamine', 'Glucuronic acid', 'L-cinerulose B', 'D-rhamnose', '2,3-O-dimethyl-L-rhamnose', 'L-vicenisamine', 'Nogalamine', 'L-fucose', 'L-daunosamine', '6-deoxy-3-C-methyl-L-mannose', '4,6-dideoxy-4-hydroxylamino-D-glucose', '3-N,N-dimethyl-L-eremosamine', 'L-rhodinose', 'D-angolosamine', 'D-galactose', 'Kedarosamine', "2'-N-methyl-D-fucosamine", 'L-rhamnose', '4-O-acetyl-L-arcanose', 'D-oliose', 'N-5-acetylneuraminic acid']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', '2-Methylbutyryl-CoA', 'Unknown', 'p-Aminobenzoate', 'Trans-cyclopentane-(1R,2R)-dicarboxylic acid', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', '3-Amino-2-Methylpropionate', 'Mycolate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Isotope labeling', 'Sequence-based prediction', 'Other', 'Structure-based inference', 'Activity assay', 'Feeding study']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Homoserine lactone', 'Nucleoside', 'Ectoine', 'Non-NRP siderophore', 'Other', 'Butyrolactone', 'Amino acid-derived', 'Phosphonate', 'Aminocoumarin', 'Cyclitol', 'Melanin', 'Glucosinate', 'Shikimate-derived', 'tRNA-derived', 'Furan', 'Fatty acid', 'Phenazine', 'Non-NRP beta-lactam', 'Phosphoglycolipid']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Hemiterpene', 'Monoterpene', 'Tetraterpene', 'Diterpene', 'Norisoprenoid', 'Other', 'Triterpene', 'Sesquiterpene', 'Homoterpene (C16)', 'Sesquarterpene', 'Sesterterpene', 'Homoterpene (C11)', 'Polyterpene']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Dual', 'Heterocyclization', 'Ester bond-forming', 'Other', 'Unknown', 'Starter', 'LCL', 'DCL']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Cyclic depsipeptide', 'NRP siderophore', 'Glycopeptidolipid', 'Other', 'Ca+-dependent lipopeptide', 'Glycopeptide', 'Beta-lactam', 'Uridylpeptide', 'Pyrrolobenzodiazepine', 'Other lipopeptide']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Bottromycin', 'Lassopeptide', 'Microcin', 'Head-to-tailcyclized peptide', 'Orbitide', 'Cyclotide', 'Linaridin', 'Other', 'Proteusin', 'Cyanobactin', 'Sactipeptide', 'Lanthipeptide', 'Glycocin', 'Amatoxin/phallotoxin', 'Thiopeptide', 'LAP', 'Microviridin', 'Conopeptide']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Benzoisochromanequinone', 'Enediyine', 'Stilbene', 'Aryl polyene', 'Tetracycline', 'Tetracenomycin', 'Chalcone', 'Ansamycin', 'Other', 'Anthracycline', 'Angucycline', 'Polyphenol', 'Macrolide', 'Polyene', 'Polyether']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Activity assay', 'Other', 'Structure-based inference', 'Sequence-based prediction']</t>
+  </si>
+  <si>
+    <t>'None' is not one of ['Acetylation', 'Epimerization', 'Deoxygenation', 'Other', 'Amination', 'Glycosylation', 'Hydrolysis', 'Halogenation', 'Oxidation', 'Carboxylation', 'Dioxygenation', 'Phosphorylation', 'Methylation', 'Acylation', 'Decarboxylation', 'Deamination', 'Heterocyclization', 'Unknown', 'Hydroxylation', 'Dehydration', 'Demethylation', 'Reduction', 'Monooxygenation', 'Sulfation', 'Prenylation']</t>
+  </si>
+  <si>
+    <t>'N/AKnock-out' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'N/A' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'N/A' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'N/A' is not one of ['Dual', 'Heterocyclization', 'Ester bond-forming', 'Other', 'Unknown', 'Starter', 'LCL', 'DCL']</t>
+  </si>
+  <si>
+    <t>'N-methylglycine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'N-methyl-threonine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Molecular ion' is not one of ['[M-H–H2O]-', '[M+NH4]+', '[M+2H]2+', 'Other multiply charged ion', '[M+Na]+', '[M+H–H2O]+', '[M+K]+', '[M+X]-', '[M+Cl]-', 'Other', 'M-', '[M+H]+', 'M+', '[M-H]-']</t>
+  </si>
+  <si>
+    <t>'Modular Type I' is not one of ['Enediyne type I', 'Type II', 'Other', 'Type III', 'Iterative type I', 'Trans-AT type I', 'Modular type I', 'PUFA synthase or related']</t>
+  </si>
+  <si>
+    <t>'Methylmalonyl-CoA/Methylmalonyl-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'Methylmalonyl-CoA/Malonyl-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'Malonyl-CoA/Malonyl-CoA/Malonyl-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'M+Na+' is not one of ['[M-H–H2O]-', '[M+NH4]+', '[M+2H]2+', 'Other multiply charged ion', '[M+Na]+', '[M+H–H2O]+', '[M+K]+', '[M+X]-', '[M+Cl]-', 'Other', 'M-', '[M+H]+', 'M+', '[M-H]-']</t>
+  </si>
+  <si>
+    <t>'M+H+' is not one of ['[M-H–H2O]-', '[M+NH4]+', '[M+2H]2+', 'Other multiply charged ion', '[M+Na]+', '[M+H–H2O]+', '[M+K]+', '[M+X]-', '[M+Cl]-', 'Other', 'M-', '[M+H]+', 'M+', '[M-H]-']</t>
+  </si>
+  <si>
+    <t>'Lysine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Leucine / Arginine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Lasso Peptide' is not one of ['Bottromycin', 'Lassopeptide', 'Microcin', 'Head-to-tailcyclized peptide', 'Orbitide', 'Cyclotide', 'Linaridin', 'Other', 'Proteusin', 'Cyanobactin', 'Sactipeptide', 'Lanthipeptide', 'Glycocin', 'Amatoxin/phallotoxin', 'Thiopeptide', 'LAP', 'Microviridin', 'Conopeptide']</t>
+  </si>
+  <si>
+    <t>'Lap' is not one of ['Bottromycin', 'Lassopeptide', 'Microcin', 'Head-to-tailcyclized peptide', 'Orbitide', 'Cyclotide', 'Linaridin', 'Other', 'Proteusin', 'Cyanobactin', 'Sactipeptide', 'Lanthipeptide', 'Glycocin', 'Amatoxin/phallotoxin', 'Thiopeptide', 'LAP', 'Microviridin', 'Conopeptide']</t>
+  </si>
+  <si>
+    <t>'Lap / Microcin' is not one of ['Bottromycin', 'Lassopeptide', 'Microcin', 'Head-to-tailcyclized peptide', 'Orbitide', 'Cyclotide', 'Linaridin', 'Other', 'Proteusin', 'Cyanobactin', 'Sactipeptide', 'Lanthipeptide', 'Glycocin', 'Amatoxin/phallotoxin', 'Thiopeptide', 'LAP', 'Microviridin', 'Conopeptide']</t>
+  </si>
+  <si>
+    <t>'Lantipeptide' is not one of ['Bottromycin', 'Lassopeptide', 'Microcin', 'Head-to-tailcyclized peptide', 'Orbitide', 'Cyclotide', 'Linaridin', 'Other', 'Proteusin', 'Cyanobactin', 'Sactipeptide', 'Lanthipeptide', 'Glycocin', 'Amatoxin/phallotoxin', 'Thiopeptide', 'LAP', 'Microviridin', 'Conopeptide']</t>
+  </si>
+  <si>
+    <t>'L-rhodosamine ' is not one of ['N-acetyl-D-glucosamine', 'O-methyl-L-amicetose', '3-N,N-dimethyl-D-mycosamine', 'L-rhodosamine', 'L-noviose', 'D-ravidosamine', 'D-fucose', 'L-boivinose', 'Namenamicin sugar C', '2-O-methyl-L-rhamnose', 'Olivomose', 'D-arabinose', '4-O-acetyl-D-ravidosamine', '6-methoxy-D-glucose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-cladinose', '4-oxo-L-vancosamine', '3-O-carbamoyl-4-O-methyl-L-noviose', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-digitoxose', '2-thioglucose', 'D-digitalose', '2-deoxy-L-fucose', 'D-desosamine', 'Ketodeoxyoctonic acid', 'D-forosamine', 'L-cinerulose A', '4-O-methyl-L-rhodinose', '2,3,4-tri-O-methylrhamnose', 'Other', 'D-olivose', 'Multiple (promiscuous)', 'L-quinovose', 'D-fucofuranose', '3-O-methyl-L-olivose/L-oleandrose', 'D-galacturonic acid', 'L-megosamine', '3-O-methyl-rhamnose', 'D-chalcose', 'L-aculose', 'D-glucose', '3-O-carbamoyl-L-noviose', 'D-mycarose', '3-methoxy-D-mannose', 'L-nogalose', '3-N-acetyl-D-ravidosamine', 'D-glucosamine', 'D-quinovose', 'L-vancosamine', '4-deoxy-4-thio-D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'L-actinosamine', 'L-digitoxose', 'L-acosamine', 'L-ristosamine', '2,4-O-dimethyl-L-rhamnose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'Rednose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'D-mannose', 'D-mycosamine', '4-deoxy-4-methylthio-a-D-digitoxose', 'N-acetyl-D-galactose', '3,4-O-dimethyl-L-rhamnose', 'Olivomycose (L-chromose B)', '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'Unknown', 'N,N-dimethyl-L-pyrrolosamine', '4-O-carbamoyl-D-olivose', '3-epi-L-vancosamine', 'Glucuronic acid', 'L-cinerulose B', 'D-rhamnose', '2,3-O-dimethyl-L-rhamnose', 'L-vicenisamine', 'Nogalamine', 'L-fucose', 'L-daunosamine', '6-deoxy-3-C-methyl-L-mannose', '4,6-dideoxy-4-hydroxylamino-D-glucose', '3-N,N-dimethyl-L-eremosamine', 'L-rhodinose', 'D-angolosamine', 'D-galactose', 'Kedarosamine', "2'-N-methyl-D-fucosamine", 'L-rhamnose', '4-O-acetyl-L-arcanose', 'D-oliose', 'N-5-acetylneuraminic acid']</t>
+  </si>
+  <si>
+    <t>'L-forosamine' is not one of ['N-acetyl-D-glucosamine', 'O-methyl-L-amicetose', '3-N,N-dimethyl-D-mycosamine', 'L-rhodosamine', 'L-noviose', 'D-ravidosamine', 'D-fucose', 'L-boivinose', 'Namenamicin sugar C', '2-O-methyl-L-rhamnose', 'Olivomose', 'D-arabinose', '4-O-acetyl-D-ravidosamine', '6-methoxy-D-glucose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-cladinose', '4-oxo-L-vancosamine', '3-O-carbamoyl-4-O-methyl-L-noviose', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-digitoxose', '2-thioglucose', 'D-digitalose', '2-deoxy-L-fucose', 'D-desosamine', 'Ketodeoxyoctonic acid', 'D-forosamine', 'L-cinerulose A', '4-O-methyl-L-rhodinose', '2,3,4-tri-O-methylrhamnose', 'Other', 'D-olivose', 'Multiple (promiscuous)', 'L-quinovose', 'D-fucofuranose', '3-O-methyl-L-olivose/L-oleandrose', 'D-galacturonic acid', 'L-megosamine', '3-O-methyl-rhamnose', 'D-chalcose', 'L-aculose', 'D-glucose', '3-O-carbamoyl-L-noviose', 'D-mycarose', '3-methoxy-D-mannose', 'L-nogalose', '3-N-acetyl-D-ravidosamine', 'D-glucosamine', 'D-quinovose', 'L-vancosamine', '4-deoxy-4-thio-D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'L-actinosamine', 'L-digitoxose', 'L-acosamine', 'L-ristosamine', '2,4-O-dimethyl-L-rhamnose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'Rednose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'D-mannose', 'D-mycosamine', '4-deoxy-4-methylthio-a-D-digitoxose', 'N-acetyl-D-galactose', '3,4-O-dimethyl-L-rhamnose', 'Olivomycose (L-chromose B)', '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'Unknown', 'N,N-dimethyl-L-pyrrolosamine', '4-O-carbamoyl-D-olivose', '3-epi-L-vancosamine', 'Glucuronic acid', 'L-cinerulose B', 'D-rhamnose', '2,3-O-dimethyl-L-rhamnose', 'L-vicenisamine', 'Nogalamine', 'L-fucose', 'L-daunosamine', '6-deoxy-3-C-methyl-L-mannose', '4,6-dideoxy-4-hydroxylamino-D-glucose', '3-N,N-dimethyl-L-eremosamine', 'L-rhodinose', 'D-angolosamine', 'D-galactose', 'Kedarosamine', "2'-N-methyl-D-fucosamine", 'L-rhamnose', '4-O-acetyl-L-arcanose', 'D-oliose', 'N-5-acetylneuraminic acid']</t>
+  </si>
+  <si>
+    <t>'L-Rhodinose' is not one of ['N-acetyl-D-glucosamine', 'O-methyl-L-amicetose', '3-N,N-dimethyl-D-mycosamine', 'L-rhodosamine', 'L-noviose', 'D-ravidosamine', 'D-fucose', 'L-boivinose', 'Namenamicin sugar C', '2-O-methyl-L-rhamnose', 'Olivomose', 'D-arabinose', '4-O-acetyl-D-ravidosamine', '6-methoxy-D-glucose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-cladinose', '4-oxo-L-vancosamine', '3-O-carbamoyl-4-O-methyl-L-noviose', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-digitoxose', '2-thioglucose', 'D-digitalose', '2-deoxy-L-fucose', 'D-desosamine', 'Ketodeoxyoctonic acid', 'D-forosamine', 'L-cinerulose A', '4-O-methyl-L-rhodinose', '2,3,4-tri-O-methylrhamnose', 'Other', 'D-olivose', 'Multiple (promiscuous)', 'L-quinovose', 'D-fucofuranose', '3-O-methyl-L-olivose/L-oleandrose', 'D-galacturonic acid', 'L-megosamine', '3-O-methyl-rhamnose', 'D-chalcose', 'L-aculose', 'D-glucose', '3-O-carbamoyl-L-noviose', 'D-mycarose', '3-methoxy-D-mannose', 'L-nogalose', '3-N-acetyl-D-ravidosamine', 'D-glucosamine', 'D-quinovose', 'L-vancosamine', '4-deoxy-4-thio-D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'L-actinosamine', 'L-digitoxose', 'L-acosamine', 'L-ristosamine', '2,4-O-dimethyl-L-rhamnose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'Rednose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'D-mannose', 'D-mycosamine', '4-deoxy-4-methylthio-a-D-digitoxose', 'N-acetyl-D-galactose', '3,4-O-dimethyl-L-rhamnose', 'Olivomycose (L-chromose B)', '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'Unknown', 'N,N-dimethyl-L-pyrrolosamine', '4-O-carbamoyl-D-olivose', '3-epi-L-vancosamine', 'Glucuronic acid', 'L-cinerulose B', 'D-rhamnose', '2,3-O-dimethyl-L-rhamnose', 'L-vicenisamine', 'Nogalamine', 'L-fucose', 'L-daunosamine', '6-deoxy-3-C-methyl-L-mannose', '4,6-dideoxy-4-hydroxylamino-D-glucose', '3-N,N-dimethyl-L-eremosamine', 'L-rhodinose', 'D-angolosamine', 'D-galactose', 'Kedarosamine', "2'-N-methyl-D-fucosamine", 'L-rhamnose', '4-O-acetyl-L-arcanose', 'D-oliose', 'N-5-acetylneuraminic acid']</t>
+  </si>
+  <si>
+    <t>'L-2,4-Diaminobutyric acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Knock-outstudies' is not one of ['Sequence-based prediction', 'Knock-out studies', 'Other', 'Gene expression correlated with compound production', 'Enzymatic assays', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'KS' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'KR' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'Iterative typeI' is not one of ['Enediyne type I', 'Type II', 'Other', 'Type III', 'Iterative type I', 'Trans-AT type I', 'Modular type I', 'PUFA synthase or related']</t>
+  </si>
+  <si>
+    <t>'Isoleucine; Valine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Indole pyruvic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Hydroxyphenylglycine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Hydroxyaspartate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Hydrocinnamate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Homophenylalanine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Heterocyclization' is not one of ['Other', 'None', 'Oxidation', 'Methylation']</t>
+  </si>
+  <si>
+    <t>'Head-To-Tail Cyclized Peptide' is not one of ['Bottromycin', 'Lassopeptide', 'Microcin', 'Head-to-tailcyclized peptide', 'Orbitide', 'Cyclotide', 'Linaridin', 'Other', 'Proteusin', 'Cyanobactin', 'Sactipeptide', 'Lanthipeptide', 'Glycocin', 'Amatoxin/phallotoxin', 'Thiopeptide', 'LAP', 'Microviridin', 'Conopeptide']</t>
+  </si>
+  <si>
+    <t>'Glycolic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Glycine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Glutamine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Glutamine / Tyrosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Glutamate or (2S, 3R)-3-methylglutamate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'GNAT' is not one of ['Michael branching', 'Other', 'Methylation', 'Amination', 'Beta-branching', 'Pyran synthase', 'None']</t>
+  </si>
+  <si>
+    <t>'Feeding study' is not one of ['Activity assay', 'Other', 'Structure-based inference', 'Sequence-based prediction', 'None']</t>
+  </si>
+  <si>
+    <t>'FADH2 supply for chlorination' is not one of ['Acetylation', 'Epimerization', 'Deoxygenation', 'Other', 'Amination', 'Glycosylation', 'Hydrolysis', 'Halogenation', 'Oxidation', 'Carboxylation', 'Dioxygenation', 'Phosphorylation', 'Methylation', 'Acylation', 'Decarboxylation', 'Deamination', 'Heterocyclization', 'Unknown', 'Hydroxylation', 'Dehydration', 'Demethylation', 'Reduction', 'Monooxygenation', 'Sulfation', 'Prenylation']</t>
+  </si>
+  <si>
+    <t>'FAAL' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'Epimerization' is not one of ['Other', 'None', 'Oxidation', 'Methylation']</t>
+  </si>
+  <si>
+    <t>'ER' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'E' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'Dihydroxy hexadecanoic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Didehydroaminobutyric acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Dehydrogenation' is not one of ['Acetylation', 'Epimerization', 'Deoxygenation', 'Other', 'Amination', 'Glycosylation', 'Hydrolysis', 'Halogenation', 'Oxidation', 'Carboxylation', 'Dioxygenation', 'Phosphorylation', 'Methylation', 'Acylation', 'Decarboxylation', 'Deamination', 'Heterocyclization', 'Unknown', 'Hydroxylation', 'Dehydration', 'Demethylation', 'Reduction', 'Monooxygenation', 'Sulfation', 'Prenylation']</t>
+  </si>
+  <si>
+    <t>'Decanoyl-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'DVQFIAHVVK' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'DILALGLIWK' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'DH' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'DAWTIAAVCK' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'DAWLFGLIDK' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'DAFFLGVTFK' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-valine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-tryptophan' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-serine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-proline' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-olivose ' is not one of ['N-acetyl-D-glucosamine', 'O-methyl-L-amicetose', '3-N,N-dimethyl-D-mycosamine', 'L-rhodosamine', 'L-noviose', 'D-ravidosamine', 'D-fucose', 'L-boivinose', 'Namenamicin sugar C', '2-O-methyl-L-rhamnose', 'Olivomose', 'D-arabinose', '4-O-acetyl-D-ravidosamine', '6-methoxy-D-glucose', 'D-3-N-methyl-4-O-methyl-L-ristosamine', 'L-cladinose', '4-oxo-L-vancosamine', '3-O-carbamoyl-4-O-methyl-L-noviose', 'Chromose D (4-O-acetyl-beta-D-oliose)', 'D-digitoxose', '2-thioglucose', 'D-digitalose', '2-deoxy-L-fucose', 'D-desosamine', 'Ketodeoxyoctonic acid', 'D-forosamine', 'L-cinerulose A', '4-O-methyl-L-rhodinose', '2,3,4-tri-O-methylrhamnose', 'Other', 'D-olivose', 'Multiple (promiscuous)', 'L-quinovose', 'D-fucofuranose', '3-O-methyl-L-olivose/L-oleandrose', 'D-galacturonic acid', 'L-megosamine', '3-O-methyl-rhamnose', 'D-chalcose', 'L-aculose', 'D-glucose', '3-O-carbamoyl-L-noviose', 'D-mycarose', '3-methoxy-D-mannose', 'L-nogalose', '3-N-acetyl-D-ravidosamine', 'D-glucosamine', 'D-quinovose', 'L-vancosamine', '4-deoxy-4-thio-D-digitoxose', '4-N,N-dimethylamino-4-deoxy-5-C-methyl-l-rhamnose', 'L-actinosamine', 'L-digitoxose', 'L-acosamine', 'L-ristosamine', '2,4-O-dimethyl-L-rhamnose', '4-N-ethyl-4-amino-3-O-methoxy-2,4,5-trideoxypentose', 'Rednose', "3-(5'-methyl-2'-pyrrolylcarbonyl-)4-O-methyl-L-noviose", 'D-mannose', 'D-mycosamine', '4-deoxy-4-methylthio-a-D-digitoxose', 'N-acetyl-D-galactose', '3,4-O-dimethyl-L-rhamnose', 'Olivomycose (L-chromose B)', '3-N-acetyl-4-O-acetyl-D-ravidosamine', 'Unknown', 'N,N-dimethyl-L-pyrrolosamine', '4-O-carbamoyl-D-olivose', '3-epi-L-vancosamine', 'Glucuronic acid', 'L-cinerulose B', 'D-rhamnose', '2,3-O-dimethyl-L-rhamnose', 'L-vicenisamine', 'Nogalamine', 'L-fucose', 'L-daunosamine', '6-deoxy-3-C-methyl-L-mannose', '4,6-dideoxy-4-hydroxylamino-D-glucose', '3-N,N-dimethyl-L-eremosamine', 'L-rhodinose', 'D-angolosamine', 'D-galactose', 'Kedarosamine', "2'-N-methyl-D-fucosamine", 'L-rhamnose', '4-O-acetyl-L-arcanose', 'D-oliose', 'N-5-acetylneuraminic acid']</t>
+  </si>
+  <si>
+    <t>'D-lysine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-leucine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-glutamine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-allothreonine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-alanine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-N2-methylasparagine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'D-Alanine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Cysteine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Cysteic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Coumaric acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'CMET' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'CAL' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'C' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'Beta-methylleucine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Beta-methoxyaspartate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Beta-hydroxyasparagine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'B-group' is not one of ['L-OH', 'Unknown', 'D-OH', 'No reduction', 'Inactive']</t>
+  </si>
+  <si>
+    <t>'Aspartate / N-methylaspartate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Asparigine' is not one of ['Tryptophan', 'Histidine', 'Glycine', 'Phenylalanine', 'Proline', 'Methionine', 'Valine', 'Aspartate', 'Leucine', 'Glutamine', 'Threonine', 'Isoleucine', 'Arginine', 'Asparagine', 'Glutamate', 'Serine', 'Alanine', 'Cysteine', 'Tyrosine', 'Lysine']</t>
+  </si>
+  <si>
+    <t>'Asparigine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Asparigine or (2S, 3S)-3-hydroxyasparagine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Arginine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Arginine / Lysine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Argininal' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Antiviral' is not one of ['Antifungal', 'Antioxidant', 'Antibacterial', 'Surfactant', 'Inhibitor', 'Other', 'Unknown', 'Siderophore', 'Signalling', 'Cytotoxic']</t>
+  </si>
+  <si>
+    <t>'Anthranilate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Aminotransferase' is not one of ['Other', 'None', 'Oxidation', 'Methylation']</t>
+  </si>
+  <si>
+    <t>'Amination' is not one of ['Other', 'None', 'Oxidation', 'Methylation']</t>
+  </si>
+  <si>
+    <t>'Alanine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'Activity assay &amp; knockout' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'Activity assay &amp; knock-out' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'Acetyl-CoA/Methylmalonyl-CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'Acetyl-CoA + Malonyl CoA' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'AT' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'ACP' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'A-group' is not one of ['L-OH', 'Unknown', 'D-OH', 'No reduction', 'Inactive']</t>
+  </si>
+  <si>
+    <t>'A' is not one of ['Ketosynthase', 'Ketoreductase', 'Thiolation (ACP/PCP)', 'CoA-ligase', 'Enoylreductase', 'Acyltransferase', 'Dehydratase']</t>
+  </si>
+  <si>
+    <t>'4-hydroxyphenylpyruvate' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Multiple (promiscuous)', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'None', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', 'Unknown', '2-Methylbutyryl-CoA', 'p-Aminobenzoate', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', 'Trans-cyclopentane-(1R, 2R)-dicarboxylic acid', 'Mycolate', '3-Amino-2-Methylpropionate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'4-hydroxyphenylpyruvate' is not one of ['Malonyl-CoA', 'Ethylmalonyl-CoA', 'Methylmalonyl-CoA', 'Other', 'Hexanoyl-ACP', 'Aminomalonyl-CoA', 'Glycolate', 'Malonamyl-CoA', 'Methoxymalonyl-CoA', 'Acetoacetyl-CoA', '3,5-AHBA-CoA', '3-Methylbutyryl-CoA', 'Butyryl-ACP', 'Propionyl-CoA', 'p-Nitrobenzoate', '2-Methylbutyryl-CoA', 'Unknown', 'p-Aminobenzoate', 'Trans-cyclopentane-(1R,2R)-dicarboxylic acid', 'Benzoyl-CoA', 'Hydroxymalonyl-CoA', 'Cyclohexylcarbonyl-CoA', '3-Amino-2-Methylpropionate', 'Mycolate', 'Isobutyryl-CoA', 'p-Coumaroyl-CoA', 'Acetyl-CoA']</t>
+  </si>
+  <si>
+    <t>'4-acetamidopyrrole-2-carboxylate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'4-Methylproline' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'4-Chlorothreonine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'4,5-dihydroxyornithine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3-methylaspartic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3-hydroxypicolinic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3-hydroxyglutamine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3-hydroxy-4-methylproline' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3-hydroxy-4-O-methyl-5-methyl-tyrosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3-amino-4-hydroxybenzoic acid' is not one of ['Benzoic acid', '3-Amino-5-hydroxybenzoic acid', 'Other', '6-methylsalicylic acid', 'Coumarin group', '3-Dimethylallyl-4-hydroxybenzoic acid', 'Orsellinic acid', 'Polyamino alcohol', 'Lipid', 'Indole group', 'Pyrrole ring']</t>
+  </si>
+  <si>
+    <t>'3-Methylproline' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3,5-Dihydroxyphenylglycine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'3,4-hydroxyhomotyrosine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'2x Crotonase / Enoyl-CoA dehydratase' is not one of ['Michael branching', 'Other', 'Methylation', 'Amination', 'Beta-branching', 'Pyran synthase', 'None']</t>
+  </si>
+  <si>
+    <t>'2-oxo-isovaleric acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'2-amino-9,10-epoxi-8-oxodecanoic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'2,3-Diamino-3-methylpropanoic acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'(beta-Me)Phe' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'(Phenylalanine, Tryptophane),(Valine, Isoleucine)' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'(4S)-5,5,5-trichloroleucine' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'(4-Pe)Pro' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'(3-Ncp)Ala' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'(2S,3S)-2,3-Diaminobutyric acid' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'(2S,3R)-2-amino-3-hydroxy-4-(4-nitrophenyl)butanoate' is not one of ['Hydroxy-cycloornithine', '3,5-Dihydroxy-phenylglycine', 'Kynurenine', 'Salicylic acid', 'Allo-threonine', 'Other', 'Homoproline', 'N-Acetyl-hydroxyornithine', 'Phenylglycine', 'N-Methyl-valine', 'N-Methyl-phenylalanine', 'N-Methyl-alanine', '4-Hydroxyphenylglycine', '2-Hydroxy-3-methyl-pentanoic acid', '2,3-Dihydroxybenzoic acid', '4-Hydroxyproline', 'Pipecolic acid', '2-Hydroxyisovalerate', '2,3-Diaminopropionic acid', 'Putrescine', '2,4-Diaminobutyric acid', 'Citrulline', 'N-Methyl-hydroxyphenylglycine', 'N5-Hydroxyornithine', 'Homoserine', 'Isovaline', 'Phenylalaninol', 'Beta-hydroxytyrosine', 'N-Methyl-Glycine', 'N-Methyl-phenylglycine', '2-Aminobutyricacid', '2-Amino-adipic-acid', 'N-Methyl-leucine', 'N6-Formyl-hydroxyornithine', 'Beta-alanine', 'Hydroxyasparagine', 'Hydroxyaspartic acid', 'Homotyrosine', '2,3-Dehydro-2-aminobutyric acid', 'N-Methyl-isoleucine', 'Ornithine', '2-Aminoisobutyricacid']</t>
+  </si>
+  <si>
+    <t>'' is not one of ['Scaffold biosynthesis', 'Tailoring', 'Resistance/immunity', 'Regulation', 'Other', 'Unknown', 'Precursor biosynthesis', 'Activation / processing', 'Other enzymatic', 'Transport']</t>
+  </si>
+  <si>
+    <t>'' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>'' is not one of ['Antifungal', 'Antioxidant', 'Antibacterial', 'Surfactant', 'Inhibitor', 'Other', 'Unknown', 'Siderophore', 'Signalling', 'Cytotoxic']</t>
+  </si>
+  <si>
+    <t>' sequenced-based prediction' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>' sequence-based prediction' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>' other in vivo study' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>' activity assay' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>' Sequence-based prediction' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>' Other in vivo study' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>' Other in vivo studies' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>' Activity assay' is not one of ['Other in vivo study', 'Sequence-based prediction', 'Other', 'Knock-out', 'Activity assay', 'Heterologous expression']</t>
+  </si>
+  <si>
+    <t>message</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1433,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,759 +1719,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="139.6640625" customWidth="1"/>
-    <col min="3" max="3" width="91.83203125" customWidth="1"/>
+    <col min="1" max="1" width="103.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>137</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="B4">
-        <v>335</v>
-      </c>
-      <c r="C4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>142</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>144</v>
       </c>
       <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>146</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>148</v>
       </c>
       <c r="B13">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>149</v>
       </c>
       <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="B16">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="B17">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>153</v>
       </c>
       <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>154</v>
       </c>
       <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>158</v>
       </c>
       <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>159</v>
       </c>
       <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>164</v>
       </c>
       <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>165</v>
       </c>
       <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>168</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>394</v>
+        <v>169</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="B35">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>396</v>
+        <v>171</v>
       </c>
       <c r="B36">
-        <v>146</v>
-      </c>
-      <c r="C36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>319</v>
+        <v>172</v>
       </c>
       <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="B38">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="B40">
-        <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="B42">
-        <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>178</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>356</v>
+        <v>179</v>
       </c>
       <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="B45">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>401</v>
+        <v>181</v>
       </c>
       <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>182</v>
       </c>
       <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>183</v>
       </c>
       <c r="B48">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>184</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>411</v>
+        <v>185</v>
       </c>
       <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>391</v>
+        <v>186</v>
       </c>
       <c r="B51">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>187</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1651097</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>188</v>
       </c>
       <c r="B53">
-        <v>23</v>
-      </c>
-      <c r="C53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>393</v>
+        <v>189</v>
       </c>
       <c r="B54">
-        <v>23</v>
-      </c>
-      <c r="C54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="B55">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>400</v>
+        <v>191</v>
       </c>
       <c r="B56">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>192</v>
       </c>
       <c r="B57">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>193</v>
       </c>
       <c r="B58">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="B59">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="B60">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>196</v>
       </c>
       <c r="B61">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="B62">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="B63">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="B64">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="B65">
-        <v>128</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>343</v>
+        <v>201</v>
       </c>
       <c r="B66">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="B67">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="B68">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>374</v>
+        <v>204</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>381</v>
+        <v>205</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>206</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="B73">
         <v>22</v>
@@ -2382,7 +2316,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="B74">
         <v>20</v>
@@ -2390,7 +2324,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="B75">
         <v>20</v>
@@ -2398,79 +2332,79 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="B76">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>372</v>
+        <v>212</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>417</v>
+        <v>213</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>214</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>399</v>
+        <v>215</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>398</v>
+        <v>219</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>371</v>
+        <v>220</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -2478,72 +2412,24 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>416</v>
+        <v>221</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>353</v>
+        <v>222</v>
       </c>
       <c r="B87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>355</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>304</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>354</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>419</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>310</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>418</v>
-      </c>
-      <c r="B93">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
-    <sortState ref="A2:C93">
-      <sortCondition descending="1" ref="C1:C93"/>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B87">
+      <sortCondition descending="1" ref="B1:B87"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2552,28 +2438,1030 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="107.6640625" customWidth="1"/>
+    <col min="1" max="1" width="141.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="108.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1651097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37">
+        <v>335</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38">
+        <v>146</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39">
+        <v>115</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40">
+        <v>97</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41">
+        <v>94</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42">
+        <v>65</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44">
+        <v>48</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45">
+        <v>46</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D74">
+      <sortCondition descending="1" ref="B1:B74"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B252"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="135" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1816</v>
@@ -2581,7 +3469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1816</v>
@@ -2589,7 +3477,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1728</v>
@@ -2597,23 +3485,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1322</v>
@@ -2621,7 +3509,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1322</v>
@@ -2629,1039 +3517,1039 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="B9">
-        <v>1322</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>682</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="B11">
-        <v>548</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="B12">
-        <v>499</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="B13">
-        <v>498</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="B14">
-        <v>498</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="B15">
-        <v>226</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="B16">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="B17">
-        <v>177</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="B18">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>441</v>
       </c>
       <c r="B19">
-        <v>168</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="B20">
-        <v>161</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>150</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="B22">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="B23">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>412</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
         <v>30</v>
-      </c>
-      <c r="B27">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>411</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>450</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>306</v>
       </c>
       <c r="B39">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="B40">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B43">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="B44">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46">
         <v>6</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="B47">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="B49">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="B50">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="B51">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>309</v>
       </c>
       <c r="B52">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>376</v>
       </c>
       <c r="B53">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>448</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>344</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B67">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>260</v>
       </c>
       <c r="B69">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>262</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>327</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>332</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>389</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>405</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>413</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>426</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>442</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>444</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3669,7 +4557,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3677,7 +4565,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3685,7 +4573,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3693,7 +4581,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3701,7 +4589,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -3709,7 +4597,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -3717,7 +4605,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -3725,7 +4613,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -3733,7 +4621,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3741,7 +4629,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -3749,7 +4637,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3757,7 +4645,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -3765,7 +4653,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -3773,7 +4661,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3781,7 +4669,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -3789,7 +4677,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -3797,7 +4685,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>90</v>
+        <v>328</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3805,7 +4693,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3813,7 +4701,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>92</v>
+        <v>331</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -3821,7 +4709,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3829,7 +4717,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -3837,7 +4725,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>105</v>
+        <v>336</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -3845,7 +4733,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>115</v>
+        <v>337</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3853,7 +4741,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -3861,7 +4749,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -3869,7 +4757,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -3877,7 +4765,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -3885,7 +4773,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -3893,7 +4781,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>127</v>
+        <v>346</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -3901,7 +4789,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -3909,7 +4797,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3917,7 +4805,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -3925,7 +4813,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -3933,7 +4821,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -3941,7 +4829,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -3949,7 +4837,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -3957,7 +4845,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -3965,7 +4853,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -3973,7 +4861,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>141</v>
+        <v>359</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -3981,7 +4869,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -3989,7 +4877,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -3997,7 +4885,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4005,7 +4893,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>146</v>
+        <v>364</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4013,7 +4901,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4021,7 +4909,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>149</v>
+        <v>366</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4029,7 +4917,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4037,7 +4925,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>154</v>
+        <v>369</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4045,7 +4933,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>156</v>
+        <v>370</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4053,7 +4941,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4061,7 +4949,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>159</v>
+        <v>372</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4069,7 +4957,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4077,7 +4965,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4085,7 +4973,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4093,7 +4981,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>170</v>
+        <v>377</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4101,7 +4989,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4109,7 +4997,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4117,7 +5005,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4125,7 +5013,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>180</v>
+        <v>383</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4133,7 +5021,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>181</v>
+        <v>384</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4141,7 +5029,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4149,7 +5037,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4157,7 +5045,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>185</v>
+        <v>387</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4165,7 +5053,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>186</v>
+        <v>390</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4173,7 +5061,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4181,7 +5069,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4189,7 +5077,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4197,7 +5085,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>190</v>
+        <v>397</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4205,7 +5093,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4213,7 +5101,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -4221,7 +5109,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4229,7 +5117,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>401</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4237,7 +5125,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>195</v>
+        <v>402</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -4245,7 +5133,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4253,15 +5141,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>294</v>
+      <c r="A213" t="s">
+        <v>406</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -4269,7 +5157,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -4277,7 +5165,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>199</v>
+        <v>408</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4285,7 +5173,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -4293,7 +5181,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -4301,7 +5189,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4309,7 +5197,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>206</v>
+        <v>414</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -4317,7 +5205,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>207</v>
+        <v>415</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -4325,7 +5213,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -4333,7 +5221,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>209</v>
+        <v>418</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -4341,7 +5229,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>210</v>
+        <v>419</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -4349,7 +5237,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4357,7 +5245,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -4365,7 +5253,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>215</v>
+        <v>420</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -4373,7 +5261,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4381,7 +5269,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>218</v>
+        <v>422</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -4389,7 +5277,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>219</v>
+        <v>423</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -4397,7 +5285,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>424</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4405,7 +5293,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>221</v>
+        <v>425</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -4413,7 +5301,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -4421,7 +5309,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>224</v>
+        <v>429</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4429,7 +5317,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -4437,7 +5325,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>226</v>
+        <v>430</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -4445,7 +5333,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>227</v>
+        <v>431</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4453,7 +5341,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -4461,7 +5349,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -4469,7 +5357,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -4477,7 +5365,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4485,7 +5373,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>232</v>
+        <v>433</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -4493,7 +5381,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -4501,7 +5389,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>234</v>
+        <v>435</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -4509,7 +5397,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>235</v>
+        <v>436</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4517,7 +5405,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>236</v>
+        <v>437</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4525,7 +5413,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>237</v>
+        <v>438</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -4533,7 +5421,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -4541,7 +5429,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>239</v>
+        <v>443</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4549,7 +5437,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>445</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4557,7 +5445,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -4565,7 +5453,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>243</v>
+        <v>447</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -4573,360 +5461,16 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>245</v>
+        <v>449</v>
       </c>
       <c r="B252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>246</v>
-      </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>247</v>
-      </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>248</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>249</v>
-      </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>250</v>
-      </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>251</v>
-      </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>252</v>
-      </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>253</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>254</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>255</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>256</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>257</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>258</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>259</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>261</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>262</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>263</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>264</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>265</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>266</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>268</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>269</v>
-      </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>270</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>272</v>
-      </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>273</v>
-      </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>274</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>276</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>277</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>278</v>
-      </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>279</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>280</v>
-      </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>281</v>
-      </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>282</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>283</v>
-      </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>284</v>
-      </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>285</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>286</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>287</v>
-      </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>288</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>290</v>
-      </c>
-      <c r="B292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B295">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1">
-    <sortState ref="A2:B295">
-      <sortCondition descending="1" ref="B1:B295"/>
+    <sortState ref="A2:B252">
+      <sortCondition descending="1" ref="B1:B252"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/new_schema_error_reports.xlsx
+++ b/docs/new_schema_error_reports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="old_data_vs_new_schema" sheetId="3" r:id="rId1"/>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3442,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
